--- a/data/tag_2015-08-27.xlsx
+++ b/data/tag_2015-08-27.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="整合表" sheetId="2" r:id="rId1"/>
     <sheet name="工作表3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1835" uniqueCount="802">
   <si>
     <t>人與空間</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2336,10 +2337,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+鐵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>桂格鐵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2789,10 +2786,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>+鐵</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>含鐵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3087,6 +3080,13 @@
   <si>
     <t>"+鋅"</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品類類表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"+鐵"</t>
   </si>
 </sst>
 </file>
@@ -3437,10 +3437,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3448,15 +3457,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3760,7 +3760,7 @@
   <dimension ref="A1:BZ74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3856,7 +3856,7 @@
         <v>509</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>16</v>
+        <v>800</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>509</v>
@@ -4074,13 +4074,13 @@
       <c r="A2" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="53" t="s">
         <v>347</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
       <c r="E2" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F2" s="10">
         <v>3</v>
@@ -4170,7 +4170,7 @@
         <v>2.5</v>
       </c>
       <c r="AI2" s="11" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="AJ2" s="12">
         <v>2.5</v>
@@ -4194,17 +4194,17 @@
         <v>3</v>
       </c>
       <c r="AQ2" s="11" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="AR2" s="12"/>
       <c r="AS2" s="13"/>
       <c r="AT2" s="10"/>
       <c r="AU2" s="11" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AV2" s="12"/>
       <c r="AW2" s="13" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AX2" s="10"/>
       <c r="AY2" s="11"/>
@@ -4238,11 +4238,11 @@
     </row>
     <row r="3" spans="1:78">
       <c r="A3" s="8"/>
-      <c r="B3" s="53"/>
+      <c r="B3" s="54"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="19" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="F3" s="20">
         <v>3</v>
@@ -4290,7 +4290,7 @@
         <v>3</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="V3" s="20">
         <v>3</v>
@@ -4320,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="AE3" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="AF3" s="22">
         <v>2.75</v>
@@ -4332,7 +4332,7 @@
         <v>3</v>
       </c>
       <c r="AI3" s="21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="AJ3" s="22">
         <v>2.5</v>
@@ -4386,55 +4386,55 @@
         <v>2</v>
       </c>
       <c r="BA3" s="25" t="s">
-        <v>594</v>
+        <v>801</v>
       </c>
       <c r="BB3" s="20">
         <v>2</v>
       </c>
       <c r="BC3" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="BD3" s="24">
         <v>2</v>
       </c>
       <c r="BE3" s="23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="BF3" s="26">
         <v>2</v>
       </c>
       <c r="BG3" s="21" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BH3" s="24">
         <v>2</v>
       </c>
       <c r="BI3" s="23" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BJ3" s="26">
         <v>2</v>
       </c>
       <c r="BK3" s="21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="BL3" s="24">
         <v>2.5</v>
       </c>
       <c r="BM3" s="23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="BN3" s="26">
         <v>2.5</v>
       </c>
       <c r="BO3" s="21" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BP3" s="24">
         <v>2</v>
       </c>
       <c r="BQ3" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="BR3" s="26"/>
       <c r="BS3" s="21"/>
@@ -4452,15 +4452,15 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="11" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="13" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="11"/>
@@ -4534,31 +4534,31 @@
     </row>
     <row r="5" spans="1:78">
       <c r="A5" s="8"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="57" t="s">
         <v>348</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="F5" s="10">
         <v>3</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H5" s="12">
         <v>1.75</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J5" s="10">
         <v>3</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L5" s="12">
         <v>2.25</v>
@@ -4636,37 +4636,37 @@
         <v>2.5</v>
       </c>
       <c r="AK5" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="AL5" s="10">
         <v>2.5</v>
       </c>
       <c r="AM5" s="11" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="AN5" s="12">
         <v>2.5</v>
       </c>
       <c r="AO5" s="13" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="AP5" s="10">
         <v>2.5</v>
       </c>
       <c r="AQ5" s="11" t="s">
+        <v>614</v>
+      </c>
+      <c r="AR5" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS5" s="13" t="s">
         <v>615</v>
       </c>
-      <c r="AR5" s="12">
-        <v>3</v>
-      </c>
-      <c r="AS5" s="13" t="s">
-        <v>616</v>
-      </c>
       <c r="AT5" s="10">
         <v>3</v>
       </c>
       <c r="AU5" s="11" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="AV5" s="12"/>
       <c r="AX5" s="10"/>
@@ -4701,11 +4701,11 @@
     </row>
     <row r="6" spans="1:78">
       <c r="A6" s="8"/>
-      <c r="B6" s="54"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="F6" s="10">
         <v>2</v>
@@ -4777,19 +4777,19 @@
         <v>2.5</v>
       </c>
       <c r="AC6" s="13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="AD6" s="10">
         <v>2</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="AF6" s="12">
         <v>2</v>
       </c>
       <c r="AG6" s="13" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AH6" s="10"/>
       <c r="AI6" s="11"/>
@@ -4839,11 +4839,11 @@
     </row>
     <row r="7" spans="1:78">
       <c r="A7" s="8"/>
-      <c r="B7" s="54"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="F7" s="10">
         <v>3</v>
@@ -4915,13 +4915,13 @@
         <v>2</v>
       </c>
       <c r="AC7" s="13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="AD7" s="10">
         <v>2</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AF7" s="12"/>
       <c r="AG7" s="13"/>
@@ -4973,11 +4973,11 @@
     </row>
     <row r="8" spans="1:78">
       <c r="A8" s="8"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="57"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="F8" s="10">
         <v>3</v>
@@ -4995,7 +4995,7 @@
         <v>1.75</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="L8" s="12">
         <v>2.25</v>
@@ -5095,11 +5095,11 @@
     </row>
     <row r="9" spans="1:78">
       <c r="A9" s="8"/>
-      <c r="B9" s="54"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="F9" s="10">
         <v>2.75</v>
@@ -5117,7 +5117,7 @@
         <v>2.75</v>
       </c>
       <c r="K9" s="11" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="L9" s="12">
         <v>2.75</v>
@@ -5165,19 +5165,19 @@
         <v>2.75</v>
       </c>
       <c r="AA9" s="11" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB9" s="12">
         <v>2.75</v>
       </c>
       <c r="AC9" s="13" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AD9" s="10">
         <v>3</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="AF9" s="12"/>
       <c r="AH9" s="10"/>
@@ -5228,11 +5228,11 @@
     </row>
     <row r="10" spans="1:78">
       <c r="A10" s="8"/>
-      <c r="B10" s="54"/>
+      <c r="B10" s="57"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="F10" s="10">
         <v>2.5</v>
@@ -5244,7 +5244,7 @@
         <v>2.75</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="J10" s="10">
         <v>2.75</v>
@@ -5334,23 +5334,23 @@
     </row>
     <row r="11" spans="1:78">
       <c r="A11" s="8"/>
-      <c r="B11" s="55"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="19" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="F11" s="20">
         <v>3</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H11" s="22">
         <v>2.5</v>
       </c>
       <c r="I11" s="23" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="21"/>
@@ -5362,7 +5362,7 @@
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="21" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="P11" s="22">
         <v>3</v>
@@ -5380,7 +5380,7 @@
         <v>2.25</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="V11" s="20">
         <v>1.75</v>
@@ -5422,37 +5422,37 @@
         <v>3</v>
       </c>
       <c r="AI11" s="21" t="s">
+        <v>626</v>
+      </c>
+      <c r="AJ11" s="22">
+        <v>3</v>
+      </c>
+      <c r="AK11" s="23" t="s">
         <v>627</v>
       </c>
-      <c r="AJ11" s="22">
-        <v>3</v>
-      </c>
-      <c r="AK11" s="23" t="s">
+      <c r="AL11" s="20">
+        <v>3</v>
+      </c>
+      <c r="AM11" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="AL11" s="20">
-        <v>3</v>
-      </c>
-      <c r="AM11" s="21" t="s">
+      <c r="AN11" s="22">
+        <v>3</v>
+      </c>
+      <c r="AO11" s="23" t="s">
         <v>629</v>
       </c>
-      <c r="AN11" s="22">
-        <v>3</v>
-      </c>
-      <c r="AO11" s="23" t="s">
+      <c r="AP11" s="20">
+        <v>3</v>
+      </c>
+      <c r="AQ11" s="21" t="s">
         <v>630</v>
       </c>
-      <c r="AP11" s="20">
-        <v>3</v>
-      </c>
-      <c r="AQ11" s="21" t="s">
+      <c r="AR11" s="22">
+        <v>3</v>
+      </c>
+      <c r="AS11" s="23" t="s">
         <v>631</v>
-      </c>
-      <c r="AR11" s="22">
-        <v>3</v>
-      </c>
-      <c r="AS11" s="23" t="s">
-        <v>632</v>
       </c>
       <c r="AT11" s="20"/>
       <c r="AU11" s="21"/>
@@ -5490,13 +5490,13 @@
     </row>
     <row r="12" spans="1:78">
       <c r="A12" s="8"/>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>349</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F12" s="10">
         <v>3</v>
@@ -5586,11 +5586,11 @@
     </row>
     <row r="13" spans="1:78">
       <c r="A13" s="8"/>
-      <c r="B13" s="52"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F13" s="10">
         <v>3</v>
@@ -5676,11 +5676,11 @@
     </row>
     <row r="14" spans="1:78">
       <c r="A14" s="8"/>
-      <c r="B14" s="52"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
       <c r="E14" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="F14" s="10">
         <v>3</v>
@@ -5766,11 +5766,11 @@
     </row>
     <row r="15" spans="1:78">
       <c r="A15" s="8"/>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="19" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="F15" s="20">
         <v>3</v>
@@ -5855,28 +5855,28 @@
       <c r="BZ15" s="8"/>
     </row>
     <row r="16" spans="1:78">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="52"/>
+      <c r="D16" s="53"/>
       <c r="E16" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F16" s="10">
         <v>3</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="13" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="J16" s="10">
         <v>2.5</v>
@@ -5997,12 +5997,12 @@
       <c r="BZ16" s="8"/>
     </row>
     <row r="17" spans="1:78">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="53"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
       <c r="E17" s="19" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F17" s="20">
         <v>2.25</v>
@@ -6151,14 +6151,14 @@
       <c r="BZ17" s="8"/>
     </row>
     <row r="18" spans="1:78">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="53" t="s">
         <v>425</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="F18" s="17">
         <v>3</v>
@@ -6242,7 +6242,7 @@
         <v>2.75</v>
       </c>
       <c r="AG18" s="13" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AH18" s="10"/>
       <c r="AI18" s="11"/>
@@ -6291,12 +6291,12 @@
       <c r="BZ18" s="8"/>
     </row>
     <row r="19" spans="1:78">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="52"/>
+      <c r="D19" s="53"/>
       <c r="E19" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="F19" s="29">
         <v>3</v>
@@ -6326,7 +6326,7 @@
         <v>2.75</v>
       </c>
       <c r="O19" s="11" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="P19" s="12">
         <v>3</v>
@@ -6338,7 +6338,7 @@
         <v>2.5</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="V19" s="10"/>
       <c r="W19" s="11"/>
@@ -6399,12 +6399,12 @@
       <c r="BZ19" s="8"/>
     </row>
     <row r="20" spans="1:78">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="12"/>
-      <c r="D20" s="53"/>
+      <c r="D20" s="54"/>
       <c r="E20" s="19" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F20" s="26">
         <v>1.75</v>
@@ -6416,7 +6416,7 @@
         <v>2</v>
       </c>
       <c r="I20" s="32" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="J20" s="20">
         <v>2.25</v>
@@ -6426,15 +6426,15 @@
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="N20" s="20"/>
       <c r="O20" s="21" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="R20" s="20"/>
       <c r="S20" s="21"/>
@@ -6499,14 +6499,14 @@
       <c r="BZ20" s="8"/>
     </row>
     <row r="21" spans="1:78">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="56" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="52"/>
+      <c r="D21" s="53"/>
       <c r="E21" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="F21" s="10">
         <v>2.5</v>
@@ -6614,19 +6614,19 @@
         <v>3</v>
       </c>
       <c r="AS21" s="13" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="AT21" s="10">
         <v>2.5</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="AV21" s="12">
         <v>2.5</v>
       </c>
       <c r="AW21" s="13" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="AX21" s="10"/>
       <c r="AY21" s="11"/>
@@ -6659,12 +6659,12 @@
       <c r="BZ21" s="8"/>
     </row>
     <row r="22" spans="1:78">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
       <c r="E22" s="19" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="F22" s="20">
         <v>2.75</v>
@@ -6676,7 +6676,7 @@
         <v>2.75</v>
       </c>
       <c r="I22" s="23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="J22" s="20">
         <v>2.75</v>
@@ -6754,7 +6754,7 @@
         <v>2.5</v>
       </c>
       <c r="AI22" s="21" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AJ22" s="22"/>
       <c r="AK22" s="23"/>
@@ -6801,16 +6801,16 @@
       <c r="BZ22" s="8"/>
     </row>
     <row r="23" spans="1:78">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="52" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="52"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="F23" s="10">
         <v>2.75</v>
@@ -6895,12 +6895,12 @@
       <c r="BZ23" s="8"/>
     </row>
     <row r="24" spans="1:78">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
       <c r="E24" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F24" s="10">
         <v>3</v>
@@ -7029,24 +7029,24 @@
       <c r="BZ24" s="8"/>
     </row>
     <row r="25" spans="1:78">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
       <c r="E25" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="F25" s="10">
         <v>2.5</v>
       </c>
       <c r="G25" s="11" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="H25" s="12">
         <v>3</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
@@ -7119,12 +7119,12 @@
       <c r="BZ25" s="8"/>
     </row>
     <row r="26" spans="1:78">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
       <c r="E26" s="19" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="F26" s="20">
         <v>3</v>
@@ -7249,14 +7249,14 @@
       <c r="BZ26" s="8"/>
     </row>
     <row r="27" spans="1:78">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53" t="s">
         <v>125</v>
       </c>
       <c r="D27" s="34"/>
       <c r="E27" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="F27" s="10">
         <v>3</v>
@@ -7298,7 +7298,7 @@
         <v>1.75</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="T27" s="12">
         <v>2.25</v>
@@ -7314,11 +7314,11 @@
       </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Z27" s="10"/>
       <c r="AA27" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="AB27" s="12"/>
       <c r="AC27" s="13"/>
@@ -7373,12 +7373,12 @@
       <c r="BZ27" s="8"/>
     </row>
     <row r="28" spans="1:78">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="35"/>
       <c r="E28" s="36" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F28" s="10">
         <v>3</v>
@@ -7414,19 +7414,19 @@
         <v>2</v>
       </c>
       <c r="Q28" s="37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="R28" s="10">
         <v>2.25</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="T28" s="12">
         <v>2</v>
       </c>
       <c r="U28" s="13" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="V28" s="10">
         <v>2.75</v>
@@ -7450,25 +7450,25 @@
         <v>2.25</v>
       </c>
       <c r="AC28" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="AD28" s="10">
         <v>2.25</v>
       </c>
       <c r="AE28" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="AF28" s="12">
         <v>2.25</v>
       </c>
       <c r="AG28" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="AH28" s="10">
         <v>2</v>
       </c>
       <c r="AI28" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AJ28" s="12">
         <v>2</v>
@@ -7537,12 +7537,12 @@
       <c r="BZ28" s="8"/>
     </row>
     <row r="29" spans="1:78">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="34"/>
       <c r="E29" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="F29" s="10">
         <v>3</v>
@@ -7635,12 +7635,12 @@
       <c r="BZ29" s="8"/>
     </row>
     <row r="30" spans="1:78">
-      <c r="A30" s="53"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="38"/>
       <c r="E30" s="19" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="F30" s="20">
         <v>2.5</v>
@@ -7757,20 +7757,20 @@
       <c r="BZ30" s="8"/>
     </row>
     <row r="31" spans="1:78">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="52" t="s">
+      <c r="C31" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="53" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="F31" s="10">
         <v>2.75</v>
@@ -7944,7 +7944,7 @@
         <v>2.5</v>
       </c>
       <c r="BK31" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="BL31" s="28"/>
       <c r="BM31" s="13"/>
@@ -7963,12 +7963,12 @@
       <c r="BZ31" s="8"/>
     </row>
     <row r="32" spans="1:78">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="52"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F32" s="10">
         <v>2.5</v>
@@ -7980,7 +7980,7 @@
         <v>3</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="J32" s="10">
         <v>3</v>
@@ -8046,13 +8046,13 @@
         <v>3</v>
       </c>
       <c r="AE32" s="11" t="s">
+        <v>647</v>
+      </c>
+      <c r="AF32" s="12">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="13" t="s">
         <v>648</v>
-      </c>
-      <c r="AF32" s="12">
-        <v>3</v>
-      </c>
-      <c r="AG32" s="13" t="s">
-        <v>649</v>
       </c>
       <c r="AH32" s="10"/>
       <c r="AI32" s="11"/>
@@ -8101,12 +8101,12 @@
       <c r="BZ32" s="8"/>
     </row>
     <row r="33" spans="1:78">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
       <c r="E33" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="F33" s="10">
         <v>3</v>
@@ -8247,12 +8247,12 @@
       <c r="BZ33" s="8"/>
     </row>
     <row r="34" spans="1:78">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
       <c r="E34" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="F34" s="10">
         <v>2.75</v>
@@ -8397,12 +8397,12 @@
       <c r="BZ34" s="8"/>
     </row>
     <row r="35" spans="1:78">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="52"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
       <c r="E35" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="F35" s="10">
         <v>3</v>
@@ -8519,12 +8519,12 @@
       <c r="BZ35" s="8"/>
     </row>
     <row r="36" spans="1:78">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
       <c r="E36" s="19" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="F36" s="20">
         <v>2.75</v>
@@ -8560,7 +8560,7 @@
         <v>2.5</v>
       </c>
       <c r="Q36" s="23" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="R36" s="20">
         <v>2.25</v>
@@ -8641,14 +8641,14 @@
       <c r="BZ36" s="8"/>
     </row>
     <row r="37" spans="1:78">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52" t="s">
+      <c r="A37" s="53"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53" t="s">
         <v>10</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="F37" s="10">
         <v>3</v>
@@ -8761,12 +8761,12 @@
       <c r="BZ37" s="8"/>
     </row>
     <row r="38" spans="1:78">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
       <c r="E38" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="F38" s="10">
         <v>3</v>
@@ -8802,7 +8802,7 @@
         <v>3</v>
       </c>
       <c r="Q38" s="13" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="R38" s="10">
         <v>1.5</v>
@@ -8850,7 +8850,7 @@
         <v>3</v>
       </c>
       <c r="AG38" s="13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="AH38" s="10"/>
       <c r="AI38" s="11"/>
@@ -8899,12 +8899,12 @@
       <c r="BZ38" s="8"/>
     </row>
     <row r="39" spans="1:78">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
       <c r="E39" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="F39" s="10">
         <v>2.5</v>
@@ -8916,7 +8916,7 @@
         <v>2.75</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J39" s="10">
         <v>2.75</v>
@@ -9018,7 +9018,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ39" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="AR39" s="12"/>
       <c r="AS39" s="13"/>
@@ -9057,12 +9057,12 @@
       <c r="BZ39" s="8"/>
     </row>
     <row r="40" spans="1:78">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="53"/>
       <c r="E40" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F40" s="10">
         <v>3</v>
@@ -9098,13 +9098,13 @@
         <v>2.5</v>
       </c>
       <c r="Q40" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="R40" s="10">
         <v>2.25</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T40" s="12">
         <v>2</v>
@@ -9128,7 +9128,7 @@
         <v>2.5</v>
       </c>
       <c r="AA40" s="11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AB40" s="12">
         <v>2.5</v>
@@ -9140,7 +9140,7 @@
         <v>2.5</v>
       </c>
       <c r="AE40" s="11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="13"/>
@@ -9191,12 +9191,12 @@
       <c r="BZ40" s="8"/>
     </row>
     <row r="41" spans="1:78">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="52"/>
-      <c r="D41" s="52"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
       <c r="E41" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="F41" s="10">
         <v>3</v>
@@ -9208,7 +9208,7 @@
         <v>3</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="J41" s="10">
         <v>2.5</v>
@@ -9310,13 +9310,13 @@
         <v>3</v>
       </c>
       <c r="AQ41" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="AR41" s="12">
+        <v>3</v>
+      </c>
+      <c r="AS41" s="13" t="s">
         <v>672</v>
-      </c>
-      <c r="AR41" s="12">
-        <v>3</v>
-      </c>
-      <c r="AS41" s="13" t="s">
-        <v>673</v>
       </c>
       <c r="AT41" s="10"/>
       <c r="AU41" s="11"/>
@@ -9353,12 +9353,12 @@
       <c r="BZ41" s="8"/>
     </row>
     <row r="42" spans="1:78">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53"/>
       <c r="E42" s="36" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="F42" s="10">
         <v>3</v>
@@ -9370,13 +9370,13 @@
         <v>2.5</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="J42" s="10">
         <v>2.5</v>
       </c>
       <c r="K42" s="11" t="s">
-        <v>708</v>
+        <v>801</v>
       </c>
       <c r="L42" s="12">
         <v>3</v>
@@ -9388,7 +9388,7 @@
         <v>2.5</v>
       </c>
       <c r="O42" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P42" s="12">
         <v>3</v>
@@ -9460,7 +9460,7 @@
         <v>2.5</v>
       </c>
       <c r="AM42" s="11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="AN42" s="12">
         <v>2.5</v>
@@ -9472,7 +9472,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42" s="11" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="AR42" s="12">
         <v>2.5</v>
@@ -9502,31 +9502,31 @@
         <v>2.5</v>
       </c>
       <c r="BA42" s="13" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="BB42" s="10">
         <v>2.5</v>
       </c>
       <c r="BC42" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="BD42" s="28">
         <v>2.5</v>
       </c>
       <c r="BE42" s="13" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="BF42" s="29">
         <v>2.5</v>
       </c>
       <c r="BG42" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="BH42" s="28">
         <v>2.5</v>
       </c>
       <c r="BI42" s="13" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BJ42" s="29"/>
       <c r="BK42" s="11"/>
@@ -9547,12 +9547,12 @@
       <c r="BZ42" s="8"/>
     </row>
     <row r="43" spans="1:78">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
       <c r="E43" s="19" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="F43" s="26">
         <v>3</v>
@@ -9665,12 +9665,12 @@
       <c r="BZ43" s="8"/>
     </row>
     <row r="44" spans="1:78">
-      <c r="A44" s="52"/>
-      <c r="B44" s="53"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="39"/>
       <c r="D44" s="40"/>
       <c r="E44" s="41" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="F44" s="26">
         <v>3</v>
@@ -9803,14 +9803,14 @@
       <c r="BZ44" s="8"/>
     </row>
     <row r="45" spans="1:78">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="56" t="s">
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52" t="s">
         <v>508</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="F45" s="47">
         <v>2.75</v>
@@ -9927,12 +9927,12 @@
       <c r="BZ45" s="8"/>
     </row>
     <row r="46" spans="1:78">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
       <c r="E46" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F46" s="10">
         <v>1.75</v>
@@ -10049,12 +10049,12 @@
       <c r="BZ46" s="8"/>
     </row>
     <row r="47" spans="1:78">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
       <c r="E47" s="9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="F47" s="10">
         <v>2.75</v>
@@ -10171,12 +10171,12 @@
       <c r="BZ47" s="8"/>
     </row>
     <row r="48" spans="1:78">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
       <c r="E48" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="F48" s="10">
         <v>1.75</v>
@@ -10188,7 +10188,7 @@
         <v>1.5</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J48" s="10">
         <v>1.75</v>
@@ -10206,7 +10206,7 @@
         <v>2.25</v>
       </c>
       <c r="O48" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="P48" s="12">
         <v>2</v>
@@ -10297,12 +10297,12 @@
       <c r="BZ48" s="8"/>
     </row>
     <row r="49" spans="1:78">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
       <c r="E49" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="F49" s="10">
         <v>2.75</v>
@@ -10419,12 +10419,12 @@
       <c r="BZ49" s="8"/>
     </row>
     <row r="50" spans="1:78">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="53"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="19" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F50" s="20">
         <v>2.75</v>
@@ -10448,7 +10448,7 @@
         <v>1.75</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="N50" s="20">
         <v>1.5</v>
@@ -10541,20 +10541,20 @@
       <c r="BZ50" s="8"/>
     </row>
     <row r="51" spans="1:78">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="56" t="s">
+      <c r="A51" s="53"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="53"/>
+      <c r="D51" s="52" t="s">
         <v>11</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="F51" s="47">
         <v>3</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="H51" s="48">
         <v>3</v>
@@ -10572,7 +10572,7 @@
         <v>3</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N51" s="47">
         <v>3</v>
@@ -10596,7 +10596,7 @@
         <v>3</v>
       </c>
       <c r="U51" s="16" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="V51" s="47">
         <v>2.75</v>
@@ -10672,18 +10672,18 @@
       <c r="BZ51" s="8"/>
     </row>
     <row r="52" spans="1:78">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="53"/>
+      <c r="D52" s="53"/>
       <c r="E52" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="F52" s="10">
         <v>3</v>
       </c>
       <c r="G52" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="H52" s="12">
         <v>1.75</v>
@@ -10707,7 +10707,7 @@
         <v>2.25</v>
       </c>
       <c r="O52" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="P52" s="12">
         <v>2.5</v>
@@ -10731,7 +10731,7 @@
         <v>2.25</v>
       </c>
       <c r="W52" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="X52" s="12">
         <v>2.5</v>
@@ -10761,7 +10761,7 @@
         <v>3</v>
       </c>
       <c r="AG52" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AH52" s="10">
         <v>3</v>
@@ -10773,13 +10773,13 @@
         <v>2.25</v>
       </c>
       <c r="AK52" s="13" t="s">
+        <v>683</v>
+      </c>
+      <c r="AL52" s="10">
+        <v>3</v>
+      </c>
+      <c r="AM52" s="11" t="s">
         <v>684</v>
-      </c>
-      <c r="AL52" s="10">
-        <v>3</v>
-      </c>
-      <c r="AM52" s="11" t="s">
-        <v>685</v>
       </c>
       <c r="AN52" s="12"/>
       <c r="AO52" s="13"/>
@@ -10822,12 +10822,12 @@
       <c r="BZ52" s="8"/>
     </row>
     <row r="53" spans="1:78">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53"/>
       <c r="E53" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F53" s="10">
         <v>2.5</v>
@@ -10964,12 +10964,12 @@
       <c r="BZ53" s="8"/>
     </row>
     <row r="54" spans="1:78">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
       <c r="E54" s="19" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F54" s="20">
         <v>2.75</v>
@@ -10993,7 +10993,7 @@
         <v>2.5</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="N54" s="20">
         <v>2.75</v>
@@ -11005,7 +11005,7 @@
         <v>2.5</v>
       </c>
       <c r="Q54" s="23" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="R54" s="20">
         <v>2.5</v>
@@ -11035,7 +11035,7 @@
         <v>2.75</v>
       </c>
       <c r="AA54" s="21" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="AB54" s="22">
         <v>2.5</v>
@@ -11077,31 +11077,31 @@
         <v>2.5</v>
       </c>
       <c r="AO54" s="23" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AP54" s="20">
         <v>2.5</v>
       </c>
       <c r="AQ54" s="21" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AR54" s="22">
         <v>2.5</v>
       </c>
       <c r="AS54" s="23" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AT54" s="20">
         <v>2.5</v>
       </c>
       <c r="AU54" s="21" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="AV54" s="22">
         <v>3</v>
       </c>
       <c r="AW54" s="23" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AX54" s="20"/>
       <c r="AY54" s="21"/>
@@ -11134,16 +11134,16 @@
       <c r="BZ54" s="8"/>
     </row>
     <row r="55" spans="1:78">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="56" t="s">
+      <c r="A55" s="53"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="D55" s="56" t="s">
+      <c r="D55" s="52" t="s">
         <v>13</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F55" s="47">
         <v>3</v>
@@ -11228,12 +11228,12 @@
       <c r="BZ55" s="8"/>
     </row>
     <row r="56" spans="1:78">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="53"/>
+      <c r="D56" s="53"/>
       <c r="E56" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F56" s="10">
         <v>3</v>
@@ -11287,7 +11287,7 @@
         <v>2.5</v>
       </c>
       <c r="W56" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="X56" s="12"/>
       <c r="Y56" s="13"/>
@@ -11346,12 +11346,12 @@
       <c r="BZ56" s="8"/>
     </row>
     <row r="57" spans="1:78">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="53"/>
+      <c r="D57" s="53"/>
       <c r="E57" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F57" s="10">
         <v>3</v>
@@ -11456,12 +11456,12 @@
       <c r="BZ57" s="8"/>
     </row>
     <row r="58" spans="1:78">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="53"/>
+      <c r="D58" s="53"/>
       <c r="E58" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F58" s="10">
         <v>3</v>
@@ -11503,13 +11503,13 @@
         <v>3</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="T58" s="12">
         <v>1.5</v>
       </c>
       <c r="U58" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="V58" s="10"/>
       <c r="W58" s="11"/>
@@ -11570,12 +11570,12 @@
       <c r="BZ58" s="8"/>
     </row>
     <row r="59" spans="1:78">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="53"/>
+      <c r="D59" s="53"/>
       <c r="E59" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F59" s="10">
         <v>3</v>
@@ -11617,7 +11617,7 @@
         <v>2.5</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="T59" s="12">
         <v>2.5</v>
@@ -11684,12 +11684,12 @@
       <c r="BZ59" s="8"/>
     </row>
     <row r="60" spans="1:78">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="53"/>
+      <c r="D60" s="53"/>
       <c r="E60" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F60" s="10">
         <v>3</v>
@@ -11743,7 +11743,7 @@
         <v>2.5</v>
       </c>
       <c r="W60" s="11" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="X60" s="12"/>
       <c r="Y60" s="13"/>
@@ -11802,12 +11802,12 @@
       <c r="BZ60" s="8"/>
     </row>
     <row r="61" spans="1:78">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="53"/>
+      <c r="D61" s="54"/>
       <c r="E61" s="19" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F61" s="20">
         <v>3</v>
@@ -11892,14 +11892,14 @@
       <c r="BZ61" s="8"/>
     </row>
     <row r="62" spans="1:78">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="56" t="s">
+      <c r="A62" s="53"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="53"/>
+      <c r="D62" s="52" t="s">
         <v>14</v>
       </c>
       <c r="E62" s="46" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F62" s="47">
         <v>3</v>
@@ -11911,7 +11911,7 @@
         <v>3</v>
       </c>
       <c r="I62" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J62" s="47">
         <v>3</v>
@@ -11953,7 +11953,7 @@
         <v>2.75</v>
       </c>
       <c r="W62" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="X62" s="48">
         <v>2.75</v>
@@ -11965,13 +11965,13 @@
         <v>2.75</v>
       </c>
       <c r="AA62" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="AB62" s="48">
         <v>2.75</v>
       </c>
       <c r="AC62" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="AD62" s="47"/>
       <c r="AE62" s="14"/>
@@ -12024,12 +12024,12 @@
       <c r="BZ62" s="8"/>
     </row>
     <row r="63" spans="1:78">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="53"/>
+      <c r="D63" s="53"/>
       <c r="E63" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F63" s="10">
         <v>3</v>
@@ -12126,12 +12126,12 @@
       <c r="BZ63" s="8"/>
     </row>
     <row r="64" spans="1:78">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="53"/>
+      <c r="D64" s="53"/>
       <c r="E64" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F64" s="10">
         <v>3</v>
@@ -12232,12 +12232,12 @@
       <c r="BZ64" s="8"/>
     </row>
     <row r="65" spans="1:78">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
+      <c r="A65" s="53"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="53"/>
+      <c r="D65" s="54"/>
       <c r="E65" s="19" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F65" s="20">
         <v>2</v>
@@ -12342,14 +12342,14 @@
       <c r="BZ65" s="8"/>
     </row>
     <row r="66" spans="1:78">
-      <c r="A66" s="53"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="53"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
       <c r="D66" s="39" t="s">
         <v>15</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F66" s="50">
         <v>2.75</v>
@@ -12361,7 +12361,7 @@
         <v>2.5</v>
       </c>
       <c r="I66" s="45" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J66" s="50">
         <v>3</v>
@@ -12379,25 +12379,25 @@
         <v>3</v>
       </c>
       <c r="O66" s="43" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="P66" s="39">
         <v>2.75</v>
       </c>
       <c r="Q66" s="45" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="R66" s="20">
         <v>2.75</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="T66" s="22">
         <v>2.75</v>
       </c>
       <c r="U66" s="23" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="V66" s="50"/>
       <c r="W66" s="43"/>
@@ -12458,116 +12458,130 @@
       <c r="BZ66" s="8"/>
     </row>
     <row r="67" spans="1:78">
-      <c r="A67" s="57" t="s">
+      <c r="A67" s="55" t="s">
         <v>575</v>
       </c>
-      <c r="B67" s="56" t="s">
+      <c r="B67" s="52" t="s">
         <v>510</v>
       </c>
-      <c r="C67" s="56"/>
-      <c r="D67" s="56"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
       <c r="E67" s="46" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="G67" s="30" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="68" spans="1:78">
-      <c r="A68" s="58"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="53"/>
       <c r="E68" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G68" s="30" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="69" spans="1:78">
-      <c r="A69" s="58"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="52"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="53"/>
       <c r="E69" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G69" s="30" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="70" spans="1:78">
-      <c r="A70" s="58"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="53"/>
       <c r="E70" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="71" spans="1:78">
-      <c r="A71" s="58"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="52"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="53"/>
+      <c r="D71" s="53"/>
       <c r="E71" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="G71" s="30" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="72" spans="1:78">
-      <c r="A72" s="58"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
       <c r="E72" s="19" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="G72" s="30" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="73" spans="1:78">
-      <c r="A73" s="58"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="56"/>
+      <c r="C73" s="52"/>
       <c r="D73" s="51"/>
       <c r="E73" s="46" t="s">
+        <v>790</v>
+      </c>
+      <c r="G73" s="30" t="s">
         <v>792</v>
       </c>
-      <c r="G73" s="30" t="s">
-        <v>794</v>
-      </c>
       <c r="H73" s="30" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
     </row>
     <row r="74" spans="1:78">
-      <c r="A74" s="58"/>
+      <c r="A74" s="56"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="53"/>
+      <c r="C74" s="54"/>
       <c r="D74" s="18"/>
       <c r="E74" s="19" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="G74" s="30" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="H74" s="30" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A16:A30"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="B23:B30"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="C16:C17"/>
     <mergeCell ref="D55:D61"/>
     <mergeCell ref="D62:D65"/>
     <mergeCell ref="B67:D72"/>
@@ -12583,20 +12597,6 @@
     <mergeCell ref="D45:D50"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="C55:C66"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="A16:A30"/>
-    <mergeCell ref="B16:B22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12637,28 +12637,28 @@
         <v>591</v>
       </c>
       <c r="H2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2" t="s">
         <v>600</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>601</v>
       </c>
-      <c r="J2" t="s">
-        <v>602</v>
-      </c>
       <c r="K2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="L2" t="s">
+        <v>643</v>
+      </c>
+      <c r="M2" t="s">
         <v>644</v>
-      </c>
-      <c r="M2" t="s">
-        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -12668,4 +12668,4669 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AK74"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="17" style="7" customWidth="1"/>
+    <col min="2" max="36" width="9" style="30"/>
+    <col min="37" max="37" width="8.88671875" style="30"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37">
+      <c r="A1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E2" t="s">
+        <v>577</v>
+      </c>
+      <c r="F2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" t="s">
+        <v>445</v>
+      </c>
+      <c r="I2" t="s">
+        <v>447</v>
+      </c>
+      <c r="J2" t="s">
+        <v>511</v>
+      </c>
+      <c r="K2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L2" t="s">
+        <v>578</v>
+      </c>
+      <c r="M2" t="s">
+        <v>579</v>
+      </c>
+      <c r="N2" t="s">
+        <v>585</v>
+      </c>
+      <c r="O2" t="s">
+        <v>586</v>
+      </c>
+      <c r="P2" t="s">
+        <v>798</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>587</v>
+      </c>
+      <c r="R2" t="s">
+        <v>588</v>
+      </c>
+      <c r="S2" t="s">
+        <v>589</v>
+      </c>
+      <c r="T2" t="s">
+        <v>709</v>
+      </c>
+      <c r="U2"/>
+      <c r="V2" t="s">
+        <v>646</v>
+      </c>
+      <c r="W2" t="s">
+        <v>660</v>
+      </c>
+      <c r="X2"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+      <c r="AA2"/>
+      <c r="AB2"/>
+      <c r="AC2"/>
+      <c r="AD2"/>
+      <c r="AE2"/>
+      <c r="AF2"/>
+      <c r="AG2"/>
+      <c r="AH2"/>
+      <c r="AI2"/>
+      <c r="AJ2"/>
+      <c r="AK2"/>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
+        <v>723</v>
+      </c>
+      <c r="B3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" t="s">
+        <v>592</v>
+      </c>
+      <c r="E3" t="s">
+        <v>437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H3" t="s">
+        <v>442</v>
+      </c>
+      <c r="I3" t="s">
+        <v>708</v>
+      </c>
+      <c r="J3" t="s">
+        <v>446</v>
+      </c>
+      <c r="K3" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" t="s">
+        <v>450</v>
+      </c>
+      <c r="M3" t="s">
+        <v>451</v>
+      </c>
+      <c r="N3" t="s">
+        <v>602</v>
+      </c>
+      <c r="O3" t="s">
+        <v>452</v>
+      </c>
+      <c r="P3" t="s">
+        <v>608</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>392</v>
+      </c>
+      <c r="R3" t="s">
+        <v>393</v>
+      </c>
+      <c r="S3" t="s">
+        <v>372</v>
+      </c>
+      <c r="T3" t="s">
+        <v>390</v>
+      </c>
+      <c r="U3" t="s">
+        <v>428</v>
+      </c>
+      <c r="V3" t="s">
+        <v>453</v>
+      </c>
+      <c r="W3" t="s">
+        <v>513</v>
+      </c>
+      <c r="X3" t="s">
+        <v>593</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>594</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>592</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>596</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>598</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>604</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>606</v>
+      </c>
+      <c r="AH3"/>
+      <c r="AI3"/>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+    </row>
+    <row r="4" spans="1:37">
+      <c r="A4" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4" t="s">
+        <v>620</v>
+      </c>
+      <c r="C4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="G4"/>
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
+      <c r="AA4"/>
+      <c r="AB4"/>
+      <c r="AC4"/>
+      <c r="AD4"/>
+      <c r="AE4"/>
+      <c r="AF4"/>
+      <c r="AG4"/>
+      <c r="AH4"/>
+      <c r="AI4"/>
+      <c r="AJ4"/>
+      <c r="AK4"/>
+    </row>
+    <row r="5" spans="1:37">
+      <c r="A5" t="s">
+        <v>725</v>
+      </c>
+      <c r="B5" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F5" t="s">
+        <v>415</v>
+      </c>
+      <c r="G5" t="s">
+        <v>416</v>
+      </c>
+      <c r="H5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I5" t="s">
+        <v>443</v>
+      </c>
+      <c r="J5" t="s">
+        <v>444</v>
+      </c>
+      <c r="K5" t="s">
+        <v>454</v>
+      </c>
+      <c r="L5" t="s">
+        <v>455</v>
+      </c>
+      <c r="M5" t="s">
+        <v>456</v>
+      </c>
+      <c r="N5" t="s">
+        <v>179</v>
+      </c>
+      <c r="O5" t="s">
+        <v>460</v>
+      </c>
+      <c r="P5" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>610</v>
+      </c>
+      <c r="R5" t="s">
+        <v>612</v>
+      </c>
+      <c r="S5" t="s">
+        <v>613</v>
+      </c>
+      <c r="T5" t="s">
+        <v>614</v>
+      </c>
+      <c r="U5" t="s">
+        <v>615</v>
+      </c>
+      <c r="V5" t="s">
+        <v>617</v>
+      </c>
+      <c r="W5"/>
+      <c r="X5"/>
+      <c r="Y5"/>
+      <c r="Z5"/>
+      <c r="AA5"/>
+      <c r="AB5"/>
+      <c r="AC5"/>
+      <c r="AD5"/>
+      <c r="AE5"/>
+      <c r="AF5"/>
+      <c r="AG5"/>
+      <c r="AH5"/>
+      <c r="AI5"/>
+      <c r="AJ5"/>
+      <c r="AK5"/>
+    </row>
+    <row r="6" spans="1:37">
+      <c r="A6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="s">
+        <v>435</v>
+      </c>
+      <c r="F6" t="s">
+        <v>436</v>
+      </c>
+      <c r="G6" t="s">
+        <v>457</v>
+      </c>
+      <c r="H6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J6" t="s">
+        <v>517</v>
+      </c>
+      <c r="K6" t="s">
+        <v>515</v>
+      </c>
+      <c r="L6" t="s">
+        <v>516</v>
+      </c>
+      <c r="M6" t="s">
+        <v>616</v>
+      </c>
+      <c r="N6" t="s">
+        <v>649</v>
+      </c>
+      <c r="O6" t="s">
+        <v>651</v>
+      </c>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
+      <c r="AJ6"/>
+      <c r="AK6"/>
+    </row>
+    <row r="7" spans="1:37">
+      <c r="A7" t="s">
+        <v>727</v>
+      </c>
+      <c r="B7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D7" t="s">
+        <v>463</v>
+      </c>
+      <c r="E7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" t="s">
+        <v>466</v>
+      </c>
+      <c r="G7" t="s">
+        <v>467</v>
+      </c>
+      <c r="H7" t="s">
+        <v>468</v>
+      </c>
+      <c r="I7" t="s">
+        <v>469</v>
+      </c>
+      <c r="J7" t="s">
+        <v>470</v>
+      </c>
+      <c r="K7" t="s">
+        <v>515</v>
+      </c>
+      <c r="L7" t="s">
+        <v>516</v>
+      </c>
+      <c r="M7" t="s">
+        <v>618</v>
+      </c>
+      <c r="N7" t="s">
+        <v>619</v>
+      </c>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7"/>
+      <c r="AH7"/>
+      <c r="AI7"/>
+      <c r="AJ7"/>
+      <c r="AK7"/>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="A8" t="s">
+        <v>728</v>
+      </c>
+      <c r="B8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D8" t="s">
+        <v>623</v>
+      </c>
+      <c r="E8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F8" t="s">
+        <v>474</v>
+      </c>
+      <c r="G8" t="s">
+        <v>518</v>
+      </c>
+      <c r="H8" t="s">
+        <v>519</v>
+      </c>
+      <c r="I8" t="s">
+        <v>520</v>
+      </c>
+      <c r="J8" t="s">
+        <v>521</v>
+      </c>
+      <c r="K8" t="s">
+        <v>522</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8"/>
+      <c r="AG8"/>
+      <c r="AH8"/>
+      <c r="AI8"/>
+      <c r="AJ8"/>
+      <c r="AK8"/>
+    </row>
+    <row r="9" spans="1:37">
+      <c r="A9" t="s">
+        <v>729</v>
+      </c>
+      <c r="B9" t="s">
+        <v>475</v>
+      </c>
+      <c r="C9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D9" t="s">
+        <v>605</v>
+      </c>
+      <c r="E9" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" t="s">
+        <v>478</v>
+      </c>
+      <c r="H9" t="s">
+        <v>222</v>
+      </c>
+      <c r="I9" t="s">
+        <v>480</v>
+      </c>
+      <c r="J9" t="s">
+        <v>512</v>
+      </c>
+      <c r="K9" t="s">
+        <v>513</v>
+      </c>
+      <c r="L9" t="s">
+        <v>607</v>
+      </c>
+      <c r="M9" t="s">
+        <v>603</v>
+      </c>
+      <c r="N9" t="s">
+        <v>708</v>
+      </c>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9"/>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9"/>
+      <c r="AI9"/>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+    </row>
+    <row r="10" spans="1:37">
+      <c r="A10" t="s">
+        <v>730</v>
+      </c>
+      <c r="B10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>373</v>
+      </c>
+      <c r="D10" t="s">
+        <v>374</v>
+      </c>
+      <c r="E10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G10" t="s">
+        <v>402</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10"/>
+      <c r="AH10"/>
+      <c r="AI10"/>
+      <c r="AJ10"/>
+      <c r="AK10"/>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" t="s">
+        <v>731</v>
+      </c>
+      <c r="B11" t="s">
+        <v>625</v>
+      </c>
+      <c r="C11" t="s">
+        <v>632</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>634</v>
+      </c>
+      <c r="G11" t="s">
+        <v>481</v>
+      </c>
+      <c r="H11" t="s">
+        <v>482</v>
+      </c>
+      <c r="I11" t="s">
+        <v>633</v>
+      </c>
+      <c r="J11" t="s">
+        <v>483</v>
+      </c>
+      <c r="K11" t="s">
+        <v>484</v>
+      </c>
+      <c r="L11" t="s">
+        <v>241</v>
+      </c>
+      <c r="M11" t="s">
+        <v>168</v>
+      </c>
+      <c r="N11" t="s">
+        <v>487</v>
+      </c>
+      <c r="O11" t="s">
+        <v>402</v>
+      </c>
+      <c r="P11" t="s">
+        <v>626</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>627</v>
+      </c>
+      <c r="R11" t="s">
+        <v>628</v>
+      </c>
+      <c r="S11" t="s">
+        <v>629</v>
+      </c>
+      <c r="T11" t="s">
+        <v>630</v>
+      </c>
+      <c r="U11" t="s">
+        <v>631</v>
+      </c>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11"/>
+      <c r="AH11"/>
+      <c r="AI11"/>
+      <c r="AJ11"/>
+      <c r="AK11"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="A12" t="s">
+        <v>732</v>
+      </c>
+      <c r="B12" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" t="s">
+        <v>525</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12"/>
+      <c r="O12"/>
+      <c r="P12"/>
+      <c r="Q12"/>
+      <c r="R12"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12"/>
+      <c r="AH12"/>
+      <c r="AI12"/>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+    </row>
+    <row r="13" spans="1:37">
+      <c r="A13" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13" t="s">
+        <v>526</v>
+      </c>
+      <c r="C13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="A14" t="s">
+        <v>734</v>
+      </c>
+      <c r="B14" t="s">
+        <v>411</v>
+      </c>
+      <c r="C14" t="s">
+        <v>421</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14"/>
+      <c r="AH14"/>
+      <c r="AI14"/>
+      <c r="AJ14"/>
+      <c r="AK14"/>
+    </row>
+    <row r="15" spans="1:37">
+      <c r="A15" t="s">
+        <v>735</v>
+      </c>
+      <c r="B15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15"/>
+      <c r="AH15"/>
+      <c r="AI15"/>
+      <c r="AJ15"/>
+      <c r="AK15"/>
+    </row>
+    <row r="16" spans="1:37">
+      <c r="A16" t="s">
+        <v>736</v>
+      </c>
+      <c r="B16" t="s">
+        <v>635</v>
+      </c>
+      <c r="C16" t="s">
+        <v>712</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16"/>
+      <c r="AH16"/>
+      <c r="AI16"/>
+      <c r="AJ16"/>
+      <c r="AK16"/>
+    </row>
+    <row r="17" spans="1:37">
+      <c r="A17" t="s">
+        <v>737</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
+        <v>355</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
+      <c r="N17" t="s">
+        <v>33</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" t="s">
+        <v>47</v>
+      </c>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17"/>
+      <c r="AH17"/>
+      <c r="AI17"/>
+      <c r="AJ17"/>
+      <c r="AK17"/>
+    </row>
+    <row r="18" spans="1:37">
+      <c r="A18" t="s">
+        <v>738</v>
+      </c>
+      <c r="B18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>136</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>41</v>
+      </c>
+      <c r="I18" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>490</v>
+      </c>
+      <c r="M18" t="s">
+        <v>491</v>
+      </c>
+      <c r="N18" t="s">
+        <v>492</v>
+      </c>
+      <c r="O18" t="s">
+        <v>636</v>
+      </c>
+      <c r="P18"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18"/>
+      <c r="AH18"/>
+      <c r="AI18"/>
+      <c r="AJ18"/>
+      <c r="AK18"/>
+    </row>
+    <row r="19" spans="1:37">
+      <c r="A19" t="s">
+        <v>739</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>351</v>
+      </c>
+      <c r="E19" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" t="s">
+        <v>652</v>
+      </c>
+      <c r="G19" t="s">
+        <v>353</v>
+      </c>
+      <c r="H19" t="s">
+        <v>713</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19"/>
+      <c r="AH19"/>
+      <c r="AI19"/>
+      <c r="AJ19"/>
+      <c r="AK19"/>
+    </row>
+    <row r="20" spans="1:37">
+      <c r="A20" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" t="s">
+        <v>354</v>
+      </c>
+      <c r="E20" t="s">
+        <v>638</v>
+      </c>
+      <c r="F20" t="s">
+        <v>639</v>
+      </c>
+      <c r="G20" t="s">
+        <v>642</v>
+      </c>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20"/>
+      <c r="AH20"/>
+      <c r="AI20"/>
+      <c r="AJ20"/>
+      <c r="AK20"/>
+    </row>
+    <row r="21" spans="1:37">
+      <c r="A21" t="s">
+        <v>741</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21"/>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>58</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
+      <c r="M21" t="s">
+        <v>140</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>356</v>
+      </c>
+      <c r="P21" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>358</v>
+      </c>
+      <c r="R21" t="s">
+        <v>359</v>
+      </c>
+      <c r="S21" t="s">
+        <v>360</v>
+      </c>
+      <c r="T21" t="s">
+        <v>361</v>
+      </c>
+      <c r="U21" t="s">
+        <v>714</v>
+      </c>
+      <c r="V21" t="s">
+        <v>715</v>
+      </c>
+      <c r="W21" t="s">
+        <v>302</v>
+      </c>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+    </row>
+    <row r="22" spans="1:37">
+      <c r="A22" t="s">
+        <v>742</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>640</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+      <c r="E22" t="s">
+        <v>363</v>
+      </c>
+      <c r="F22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" t="s">
+        <v>143</v>
+      </c>
+      <c r="K22" t="s">
+        <v>144</v>
+      </c>
+      <c r="L22" t="s">
+        <v>364</v>
+      </c>
+      <c r="M22" t="s">
+        <v>365</v>
+      </c>
+      <c r="N22" t="s">
+        <v>366</v>
+      </c>
+      <c r="O22" t="s">
+        <v>368</v>
+      </c>
+      <c r="P22" t="s">
+        <v>641</v>
+      </c>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+    </row>
+    <row r="23" spans="1:37">
+      <c r="A23" t="s">
+        <v>743</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23"/>
+      <c r="AH23"/>
+      <c r="AI23"/>
+      <c r="AJ23"/>
+      <c r="AK23"/>
+    </row>
+    <row r="24" spans="1:37">
+      <c r="A24" t="s">
+        <v>744</v>
+      </c>
+      <c r="B24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24" t="s">
+        <v>146</v>
+      </c>
+      <c r="K24"/>
+      <c r="L24" t="s">
+        <v>147</v>
+      </c>
+      <c r="M24" t="s">
+        <v>209</v>
+      </c>
+      <c r="N24" t="s">
+        <v>368</v>
+      </c>
+      <c r="O24" t="s">
+        <v>369</v>
+      </c>
+      <c r="P24" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24"/>
+      <c r="AH24"/>
+      <c r="AI24"/>
+      <c r="AJ24"/>
+      <c r="AK24"/>
+    </row>
+    <row r="25" spans="1:37">
+      <c r="A25" t="s">
+        <v>745</v>
+      </c>
+      <c r="B25" t="s">
+        <v>717</v>
+      </c>
+      <c r="C25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25"/>
+      <c r="AH25"/>
+      <c r="AI25"/>
+      <c r="AJ25"/>
+      <c r="AK25"/>
+    </row>
+    <row r="26" spans="1:37">
+      <c r="A26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" t="s">
+        <v>71</v>
+      </c>
+      <c r="G26"/>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" t="s">
+        <v>149</v>
+      </c>
+      <c r="L26" t="s">
+        <v>151</v>
+      </c>
+      <c r="M26" t="s">
+        <v>152</v>
+      </c>
+      <c r="N26" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26"/>
+      <c r="P26"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26"/>
+      <c r="AH26"/>
+      <c r="AI26"/>
+      <c r="AJ26"/>
+      <c r="AK26"/>
+    </row>
+    <row r="27" spans="1:37">
+      <c r="A27" t="s">
+        <v>747</v>
+      </c>
+      <c r="B27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" t="s">
+        <v>156</v>
+      </c>
+      <c r="F27" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" t="s">
+        <v>158</v>
+      </c>
+      <c r="H27" t="s">
+        <v>653</v>
+      </c>
+      <c r="I27" t="s">
+        <v>159</v>
+      </c>
+      <c r="J27" t="s">
+        <v>160</v>
+      </c>
+      <c r="K27" t="s">
+        <v>654</v>
+      </c>
+      <c r="L27" t="s">
+        <v>592</v>
+      </c>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27"/>
+      <c r="AH27"/>
+      <c r="AI27"/>
+      <c r="AJ27"/>
+      <c r="AK27"/>
+    </row>
+    <row r="28" spans="1:37">
+      <c r="A28" t="s">
+        <v>748</v>
+      </c>
+      <c r="B28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C28" t="s">
+        <v>162</v>
+      </c>
+      <c r="D28" t="s">
+        <v>163</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" t="s">
+        <v>655</v>
+      </c>
+      <c r="H28" t="s">
+        <v>796</v>
+      </c>
+      <c r="I28" t="s">
+        <v>798</v>
+      </c>
+      <c r="J28" t="s">
+        <v>373</v>
+      </c>
+      <c r="K28" t="s">
+        <v>374</v>
+      </c>
+      <c r="L28" t="s">
+        <v>593</v>
+      </c>
+      <c r="M28" t="s">
+        <v>597</v>
+      </c>
+      <c r="N28" t="s">
+        <v>658</v>
+      </c>
+      <c r="O28" t="s">
+        <v>659</v>
+      </c>
+      <c r="P28" t="s">
+        <v>660</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>585</v>
+      </c>
+      <c r="R28" t="s">
+        <v>586</v>
+      </c>
+      <c r="S28" t="s">
+        <v>587</v>
+      </c>
+      <c r="T28" t="s">
+        <v>97</v>
+      </c>
+      <c r="U28" t="s">
+        <v>589</v>
+      </c>
+      <c r="V28" t="s">
+        <v>579</v>
+      </c>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28"/>
+      <c r="AH28"/>
+      <c r="AI28"/>
+      <c r="AJ28"/>
+      <c r="AK28"/>
+    </row>
+    <row r="29" spans="1:37">
+      <c r="A29" t="s">
+        <v>749</v>
+      </c>
+      <c r="B29" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29"/>
+      <c r="AH29"/>
+      <c r="AI29"/>
+      <c r="AJ29"/>
+      <c r="AK29"/>
+    </row>
+    <row r="30" spans="1:37">
+      <c r="A30" t="s">
+        <v>750</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+      <c r="F30" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" t="s">
+        <v>197</v>
+      </c>
+      <c r="I30" t="s">
+        <v>198</v>
+      </c>
+      <c r="J30" t="s">
+        <v>199</v>
+      </c>
+      <c r="K30" t="s">
+        <v>200</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30"/>
+      <c r="AH30"/>
+      <c r="AI30"/>
+      <c r="AJ30"/>
+      <c r="AK30"/>
+    </row>
+    <row r="31" spans="1:37">
+      <c r="A31" t="s">
+        <v>751</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" t="s">
+        <v>83</v>
+      </c>
+      <c r="H31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" t="s">
+        <v>172</v>
+      </c>
+      <c r="K31" t="s">
+        <v>174</v>
+      </c>
+      <c r="L31" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31" t="s">
+        <v>176</v>
+      </c>
+      <c r="N31" t="s">
+        <v>375</v>
+      </c>
+      <c r="O31" t="s">
+        <v>376</v>
+      </c>
+      <c r="P31" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>377</v>
+      </c>
+      <c r="R31" t="s">
+        <v>379</v>
+      </c>
+      <c r="S31" t="s">
+        <v>380</v>
+      </c>
+      <c r="T31" t="s">
+        <v>381</v>
+      </c>
+      <c r="U31" t="s">
+        <v>382</v>
+      </c>
+      <c r="V31" t="s">
+        <v>383</v>
+      </c>
+      <c r="W31" t="s">
+        <v>384</v>
+      </c>
+      <c r="X31" t="s">
+        <v>385</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>386</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>387</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>527</v>
+      </c>
+      <c r="AB31" t="s">
+        <v>528</v>
+      </c>
+      <c r="AC31" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE31"/>
+      <c r="AF31"/>
+      <c r="AG31"/>
+      <c r="AH31"/>
+      <c r="AI31"/>
+      <c r="AJ31"/>
+      <c r="AK31"/>
+    </row>
+    <row r="32" spans="1:37">
+      <c r="A32" t="s">
+        <v>752</v>
+      </c>
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C32" t="s">
+        <v>719</v>
+      </c>
+      <c r="D32" t="s">
+        <v>388</v>
+      </c>
+      <c r="E32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F32" t="s">
+        <v>179</v>
+      </c>
+      <c r="G32" t="s">
+        <v>180</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>183</v>
+      </c>
+      <c r="K32" t="s">
+        <v>184</v>
+      </c>
+      <c r="L32" t="s">
+        <v>389</v>
+      </c>
+      <c r="M32" t="s">
+        <v>530</v>
+      </c>
+      <c r="N32" t="s">
+        <v>633</v>
+      </c>
+      <c r="O32" t="s">
+        <v>634</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+      <c r="X32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+      <c r="AC32"/>
+      <c r="AD32"/>
+      <c r="AE32"/>
+      <c r="AF32"/>
+      <c r="AG32"/>
+      <c r="AH32"/>
+      <c r="AI32"/>
+      <c r="AJ32"/>
+      <c r="AK32"/>
+    </row>
+    <row r="33" spans="1:37">
+      <c r="A33" t="s">
+        <v>753</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" t="s">
+        <v>86</v>
+      </c>
+      <c r="D33" t="s">
+        <v>87</v>
+      </c>
+      <c r="E33" t="s">
+        <v>185</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+      <c r="G33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I33" t="s">
+        <v>189</v>
+      </c>
+      <c r="J33" t="s">
+        <v>190</v>
+      </c>
+      <c r="K33" t="s">
+        <v>191</v>
+      </c>
+      <c r="L33" t="s">
+        <v>192</v>
+      </c>
+      <c r="M33" t="s">
+        <v>193</v>
+      </c>
+      <c r="N33" t="s">
+        <v>194</v>
+      </c>
+      <c r="O33" t="s">
+        <v>531</v>
+      </c>
+      <c r="P33" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>533</v>
+      </c>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+      <c r="AC33"/>
+      <c r="AD33"/>
+      <c r="AE33"/>
+      <c r="AF33"/>
+      <c r="AG33"/>
+      <c r="AH33"/>
+      <c r="AI33"/>
+      <c r="AJ33"/>
+      <c r="AK33"/>
+    </row>
+    <row r="34" spans="1:37">
+      <c r="A34" t="s">
+        <v>754</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" t="s">
+        <v>201</v>
+      </c>
+      <c r="G34" t="s">
+        <v>202</v>
+      </c>
+      <c r="H34" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J34" t="s">
+        <v>51</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>206</v>
+      </c>
+      <c r="M34" t="s">
+        <v>534</v>
+      </c>
+      <c r="N34" t="s">
+        <v>535</v>
+      </c>
+      <c r="O34" t="s">
+        <v>536</v>
+      </c>
+      <c r="P34" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>538</v>
+      </c>
+      <c r="R34" t="s">
+        <v>539</v>
+      </c>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
+      <c r="AC34"/>
+      <c r="AD34"/>
+      <c r="AE34"/>
+      <c r="AF34"/>
+      <c r="AG34"/>
+      <c r="AH34"/>
+      <c r="AI34"/>
+      <c r="AJ34"/>
+      <c r="AK34"/>
+    </row>
+    <row r="35" spans="1:37">
+      <c r="A35" t="s">
+        <v>755</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>47</v>
+      </c>
+      <c r="E35" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" t="s">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H35" t="s">
+        <v>211</v>
+      </c>
+      <c r="I35" t="s">
+        <v>212</v>
+      </c>
+      <c r="J35" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" t="s">
+        <v>214</v>
+      </c>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+      <c r="Y35"/>
+      <c r="Z35"/>
+      <c r="AA35"/>
+      <c r="AB35"/>
+      <c r="AC35"/>
+      <c r="AD35"/>
+      <c r="AE35"/>
+      <c r="AF35"/>
+      <c r="AG35"/>
+      <c r="AH35"/>
+      <c r="AI35"/>
+      <c r="AJ35"/>
+      <c r="AK35"/>
+    </row>
+    <row r="36" spans="1:37">
+      <c r="A36" t="s">
+        <v>756</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G36" t="s">
+        <v>661</v>
+      </c>
+      <c r="H36" t="s">
+        <v>216</v>
+      </c>
+      <c r="I36" t="s">
+        <v>217</v>
+      </c>
+      <c r="J36" t="s">
+        <v>210</v>
+      </c>
+      <c r="K36" t="s">
+        <v>540</v>
+      </c>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+      <c r="Y36"/>
+      <c r="Z36"/>
+      <c r="AA36"/>
+      <c r="AB36"/>
+      <c r="AC36"/>
+      <c r="AD36"/>
+      <c r="AE36"/>
+      <c r="AF36"/>
+      <c r="AG36"/>
+      <c r="AH36"/>
+      <c r="AI36"/>
+      <c r="AJ36"/>
+      <c r="AK36"/>
+    </row>
+    <row r="37" spans="1:37">
+      <c r="A37" t="s">
+        <v>757</v>
+      </c>
+      <c r="B37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C37" t="s">
+        <v>493</v>
+      </c>
+      <c r="D37" t="s">
+        <v>488</v>
+      </c>
+      <c r="E37" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" t="s">
+        <v>496</v>
+      </c>
+      <c r="G37" t="s">
+        <v>497</v>
+      </c>
+      <c r="H37" t="s">
+        <v>498</v>
+      </c>
+      <c r="I37" t="s">
+        <v>499</v>
+      </c>
+      <c r="J37" t="s">
+        <v>500</v>
+      </c>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+      <c r="Y37"/>
+      <c r="Z37"/>
+      <c r="AA37"/>
+      <c r="AB37"/>
+      <c r="AC37"/>
+      <c r="AD37"/>
+      <c r="AE37"/>
+      <c r="AF37"/>
+      <c r="AG37"/>
+      <c r="AH37"/>
+      <c r="AI37"/>
+      <c r="AJ37"/>
+      <c r="AK37"/>
+    </row>
+    <row r="38" spans="1:37">
+      <c r="A38" t="s">
+        <v>758</v>
+      </c>
+      <c r="B38" t="s">
+        <v>426</v>
+      </c>
+      <c r="C38" t="s">
+        <v>427</v>
+      </c>
+      <c r="D38" t="s">
+        <v>429</v>
+      </c>
+      <c r="E38" t="s">
+        <v>430</v>
+      </c>
+      <c r="F38" t="s">
+        <v>431</v>
+      </c>
+      <c r="G38" t="s">
+        <v>662</v>
+      </c>
+      <c r="H38" t="s">
+        <v>390</v>
+      </c>
+      <c r="I38" t="s">
+        <v>391</v>
+      </c>
+      <c r="J38" t="s">
+        <v>392</v>
+      </c>
+      <c r="K38" t="s">
+        <v>393</v>
+      </c>
+      <c r="L38" t="s">
+        <v>541</v>
+      </c>
+      <c r="M38" t="s">
+        <v>542</v>
+      </c>
+      <c r="N38" t="s">
+        <v>543</v>
+      </c>
+      <c r="O38" t="s">
+        <v>663</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+      <c r="Y38"/>
+      <c r="Z38"/>
+      <c r="AA38"/>
+      <c r="AB38"/>
+      <c r="AC38"/>
+      <c r="AD38"/>
+      <c r="AE38"/>
+      <c r="AF38"/>
+      <c r="AG38"/>
+      <c r="AH38"/>
+      <c r="AI38"/>
+      <c r="AJ38"/>
+      <c r="AK38"/>
+    </row>
+    <row r="39" spans="1:37">
+      <c r="A39" t="s">
+        <v>759</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>664</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s">
+        <v>546</v>
+      </c>
+      <c r="G39" t="s">
+        <v>222</v>
+      </c>
+      <c r="H39" t="s">
+        <v>220</v>
+      </c>
+      <c r="I39" t="s">
+        <v>223</v>
+      </c>
+      <c r="J39" t="s">
+        <v>224</v>
+      </c>
+      <c r="K39" t="s">
+        <v>225</v>
+      </c>
+      <c r="L39" t="s">
+        <v>226</v>
+      </c>
+      <c r="M39" t="s">
+        <v>234</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>396</v>
+      </c>
+      <c r="P39" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>398</v>
+      </c>
+      <c r="R39" t="s">
+        <v>544</v>
+      </c>
+      <c r="S39" t="s">
+        <v>545</v>
+      </c>
+      <c r="T39" t="s">
+        <v>665</v>
+      </c>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39"/>
+      <c r="AB39"/>
+      <c r="AC39"/>
+      <c r="AD39"/>
+      <c r="AE39"/>
+      <c r="AF39"/>
+      <c r="AG39"/>
+      <c r="AH39"/>
+      <c r="AI39"/>
+      <c r="AJ39"/>
+      <c r="AK39"/>
+    </row>
+    <row r="40" spans="1:37">
+      <c r="A40" t="s">
+        <v>760</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" t="s">
+        <v>227</v>
+      </c>
+      <c r="D40" t="s">
+        <v>228</v>
+      </c>
+      <c r="E40" t="s">
+        <v>229</v>
+      </c>
+      <c r="F40" t="s">
+        <v>230</v>
+      </c>
+      <c r="G40" t="s">
+        <v>666</v>
+      </c>
+      <c r="H40" t="s">
+        <v>669</v>
+      </c>
+      <c r="I40" t="s">
+        <v>231</v>
+      </c>
+      <c r="J40" t="s">
+        <v>232</v>
+      </c>
+      <c r="K40" t="s">
+        <v>236</v>
+      </c>
+      <c r="L40" t="s">
+        <v>667</v>
+      </c>
+      <c r="M40" t="s">
+        <v>399</v>
+      </c>
+      <c r="N40" t="s">
+        <v>668</v>
+      </c>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+      <c r="Y40"/>
+      <c r="Z40"/>
+      <c r="AA40"/>
+      <c r="AB40"/>
+      <c r="AC40"/>
+      <c r="AD40"/>
+      <c r="AE40"/>
+      <c r="AF40"/>
+      <c r="AG40"/>
+      <c r="AH40"/>
+      <c r="AI40"/>
+      <c r="AJ40"/>
+      <c r="AK40"/>
+    </row>
+    <row r="41" spans="1:37">
+      <c r="A41" t="s">
+        <v>761</v>
+      </c>
+      <c r="B41" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" t="s">
+        <v>667</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>93</v>
+      </c>
+      <c r="F41" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" t="s">
+        <v>98</v>
+      </c>
+      <c r="H41" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" t="s">
+        <v>110</v>
+      </c>
+      <c r="J41" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" t="s">
+        <v>233</v>
+      </c>
+      <c r="L41" t="s">
+        <v>438</v>
+      </c>
+      <c r="M41" t="s">
+        <v>547</v>
+      </c>
+      <c r="N41" t="s">
+        <v>548</v>
+      </c>
+      <c r="O41" t="s">
+        <v>549</v>
+      </c>
+      <c r="P41" t="s">
+        <v>550</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>551</v>
+      </c>
+      <c r="R41" t="s">
+        <v>552</v>
+      </c>
+      <c r="S41" t="s">
+        <v>553</v>
+      </c>
+      <c r="T41" t="s">
+        <v>668</v>
+      </c>
+      <c r="U41" t="s">
+        <v>669</v>
+      </c>
+      <c r="V41"/>
+      <c r="W41"/>
+      <c r="X41"/>
+      <c r="Y41"/>
+      <c r="Z41"/>
+      <c r="AA41"/>
+      <c r="AB41"/>
+      <c r="AC41"/>
+      <c r="AD41"/>
+      <c r="AE41"/>
+      <c r="AF41"/>
+      <c r="AG41"/>
+      <c r="AH41"/>
+      <c r="AI41"/>
+      <c r="AJ41"/>
+      <c r="AK41"/>
+    </row>
+    <row r="42" spans="1:37">
+      <c r="A42" t="s">
+        <v>762</v>
+      </c>
+      <c r="B42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" t="s">
+        <v>797</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="E42" t="s">
+        <v>398</v>
+      </c>
+      <c r="F42" t="s">
+        <v>655</v>
+      </c>
+      <c r="G42" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I42" t="s">
+        <v>237</v>
+      </c>
+      <c r="J42" t="s">
+        <v>238</v>
+      </c>
+      <c r="K42" t="s">
+        <v>239</v>
+      </c>
+      <c r="L42" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" t="s">
+        <v>401</v>
+      </c>
+      <c r="N42" t="s">
+        <v>402</v>
+      </c>
+      <c r="O42" t="s">
+        <v>403</v>
+      </c>
+      <c r="P42" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>374</v>
+      </c>
+      <c r="R42" t="s">
+        <v>660</v>
+      </c>
+      <c r="S42" t="s">
+        <v>585</v>
+      </c>
+      <c r="T42" t="s">
+        <v>586</v>
+      </c>
+      <c r="U42" t="s">
+        <v>587</v>
+      </c>
+      <c r="V42" t="s">
+        <v>97</v>
+      </c>
+      <c r="W42" t="s">
+        <v>589</v>
+      </c>
+      <c r="X42" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>593</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>597</v>
+      </c>
+      <c r="AA42" t="s">
+        <v>658</v>
+      </c>
+      <c r="AB42" t="s">
+        <v>659</v>
+      </c>
+      <c r="AC42" t="s">
+        <v>653</v>
+      </c>
+      <c r="AD42"/>
+      <c r="AE42"/>
+      <c r="AF42"/>
+      <c r="AG42"/>
+      <c r="AH42"/>
+      <c r="AI42"/>
+      <c r="AJ42"/>
+      <c r="AK42"/>
+    </row>
+    <row r="43" spans="1:37">
+      <c r="A43" t="s">
+        <v>763</v>
+      </c>
+      <c r="B43" t="s">
+        <v>241</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" t="s">
+        <v>221</v>
+      </c>
+      <c r="F43" t="s">
+        <v>164</v>
+      </c>
+      <c r="G43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" t="s">
+        <v>242</v>
+      </c>
+      <c r="I43" t="s">
+        <v>243</v>
+      </c>
+      <c r="J43" t="s">
+        <v>501</v>
+      </c>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43"/>
+      <c r="AB43"/>
+      <c r="AC43"/>
+      <c r="AD43"/>
+      <c r="AE43"/>
+      <c r="AF43"/>
+      <c r="AG43"/>
+      <c r="AH43"/>
+      <c r="AI43"/>
+      <c r="AJ43"/>
+      <c r="AK43"/>
+    </row>
+    <row r="44" spans="1:37">
+      <c r="A44" t="s">
+        <v>721</v>
+      </c>
+      <c r="B44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" t="s">
+        <v>555</v>
+      </c>
+      <c r="D44" t="s">
+        <v>556</v>
+      </c>
+      <c r="E44" t="s">
+        <v>557</v>
+      </c>
+      <c r="F44" t="s">
+        <v>558</v>
+      </c>
+      <c r="G44" t="s">
+        <v>554</v>
+      </c>
+      <c r="H44" t="s">
+        <v>559</v>
+      </c>
+      <c r="I44" t="s">
+        <v>560</v>
+      </c>
+      <c r="J44" t="s">
+        <v>561</v>
+      </c>
+      <c r="K44" t="s">
+        <v>562</v>
+      </c>
+      <c r="L44" t="s">
+        <v>563</v>
+      </c>
+      <c r="M44" t="s">
+        <v>564</v>
+      </c>
+      <c r="N44" t="s">
+        <v>565</v>
+      </c>
+      <c r="O44" t="s">
+        <v>566</v>
+      </c>
+      <c r="P44"/>
+      <c r="Q44"/>
+      <c r="R44"/>
+      <c r="S44"/>
+      <c r="T44"/>
+      <c r="U44"/>
+      <c r="V44"/>
+      <c r="W44"/>
+      <c r="X44"/>
+      <c r="Y44"/>
+      <c r="Z44"/>
+      <c r="AA44"/>
+      <c r="AB44"/>
+      <c r="AC44"/>
+      <c r="AD44"/>
+      <c r="AE44"/>
+      <c r="AF44"/>
+      <c r="AG44"/>
+      <c r="AH44"/>
+      <c r="AI44"/>
+      <c r="AJ44"/>
+      <c r="AK44"/>
+    </row>
+    <row r="45" spans="1:37">
+      <c r="A45" t="s">
+        <v>764</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+      <c r="C45" t="s">
+        <v>106</v>
+      </c>
+      <c r="D45" t="s">
+        <v>285</v>
+      </c>
+      <c r="E45" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" t="s">
+        <v>281</v>
+      </c>
+      <c r="G45" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" t="s">
+        <v>280</v>
+      </c>
+      <c r="J45" t="s">
+        <v>286</v>
+      </c>
+      <c r="K45" t="s">
+        <v>287</v>
+      </c>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45"/>
+      <c r="T45"/>
+      <c r="U45"/>
+      <c r="V45"/>
+      <c r="W45"/>
+      <c r="X45"/>
+      <c r="Y45"/>
+      <c r="Z45"/>
+      <c r="AA45"/>
+      <c r="AB45"/>
+      <c r="AC45"/>
+      <c r="AD45"/>
+      <c r="AE45"/>
+      <c r="AF45"/>
+      <c r="AG45"/>
+      <c r="AH45"/>
+      <c r="AI45"/>
+      <c r="AJ45"/>
+      <c r="AK45"/>
+    </row>
+    <row r="46" spans="1:37">
+      <c r="A46" t="s">
+        <v>765</v>
+      </c>
+      <c r="B46" t="s">
+        <v>104</v>
+      </c>
+      <c r="C46" t="s">
+        <v>404</v>
+      </c>
+      <c r="D46" t="s">
+        <v>279</v>
+      </c>
+      <c r="E46" t="s">
+        <v>405</v>
+      </c>
+      <c r="F46" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46" t="s">
+        <v>283</v>
+      </c>
+      <c r="H46" t="s">
+        <v>284</v>
+      </c>
+      <c r="I46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" t="s">
+        <v>288</v>
+      </c>
+      <c r="K46" t="s">
+        <v>289</v>
+      </c>
+      <c r="L46"/>
+      <c r="M46"/>
+      <c r="N46"/>
+      <c r="O46"/>
+      <c r="P46"/>
+      <c r="Q46"/>
+      <c r="R46"/>
+      <c r="S46"/>
+      <c r="T46"/>
+      <c r="U46"/>
+      <c r="V46"/>
+      <c r="W46"/>
+      <c r="X46"/>
+      <c r="Y46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46"/>
+      <c r="AC46"/>
+      <c r="AD46"/>
+      <c r="AE46"/>
+      <c r="AF46"/>
+      <c r="AG46"/>
+      <c r="AH46"/>
+      <c r="AI46"/>
+      <c r="AJ46"/>
+      <c r="AK46"/>
+    </row>
+    <row r="47" spans="1:37">
+      <c r="A47" t="s">
+        <v>766</v>
+      </c>
+      <c r="B47" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s">
+        <v>503</v>
+      </c>
+      <c r="E47" t="s">
+        <v>504</v>
+      </c>
+      <c r="F47" t="s">
+        <v>505</v>
+      </c>
+      <c r="G47" t="s">
+        <v>489</v>
+      </c>
+      <c r="H47" t="s">
+        <v>494</v>
+      </c>
+      <c r="I47" t="s">
+        <v>506</v>
+      </c>
+      <c r="J47" t="s">
+        <v>507</v>
+      </c>
+      <c r="K47" t="s">
+        <v>502</v>
+      </c>
+      <c r="L47"/>
+      <c r="M47"/>
+      <c r="N47"/>
+      <c r="O47"/>
+      <c r="P47"/>
+      <c r="Q47"/>
+      <c r="R47"/>
+      <c r="S47"/>
+      <c r="T47"/>
+      <c r="U47"/>
+      <c r="V47"/>
+      <c r="W47"/>
+      <c r="X47"/>
+      <c r="Y47"/>
+      <c r="Z47"/>
+      <c r="AA47"/>
+      <c r="AB47"/>
+      <c r="AC47"/>
+      <c r="AD47"/>
+      <c r="AE47"/>
+      <c r="AF47"/>
+      <c r="AG47"/>
+      <c r="AH47"/>
+      <c r="AI47"/>
+      <c r="AJ47"/>
+      <c r="AK47"/>
+    </row>
+    <row r="48" spans="1:37">
+      <c r="A48" t="s">
+        <v>767</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48" t="s">
+        <v>293</v>
+      </c>
+      <c r="D48" t="s">
+        <v>295</v>
+      </c>
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
+      <c r="F48" t="s">
+        <v>676</v>
+      </c>
+      <c r="G48" t="s">
+        <v>290</v>
+      </c>
+      <c r="H48" t="s">
+        <v>138</v>
+      </c>
+      <c r="I48" t="s">
+        <v>278</v>
+      </c>
+      <c r="J48" t="s">
+        <v>291</v>
+      </c>
+      <c r="K48" t="s">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s">
+        <v>293</v>
+      </c>
+      <c r="M48"/>
+      <c r="N48"/>
+      <c r="O48"/>
+      <c r="P48"/>
+      <c r="Q48"/>
+      <c r="R48"/>
+      <c r="S48"/>
+      <c r="T48"/>
+      <c r="U48"/>
+      <c r="V48"/>
+      <c r="W48"/>
+      <c r="X48"/>
+      <c r="Y48"/>
+      <c r="Z48"/>
+      <c r="AA48"/>
+      <c r="AB48"/>
+      <c r="AC48"/>
+      <c r="AD48"/>
+      <c r="AE48"/>
+      <c r="AF48"/>
+      <c r="AG48"/>
+      <c r="AH48"/>
+      <c r="AI48"/>
+      <c r="AJ48"/>
+      <c r="AK48"/>
+    </row>
+    <row r="49" spans="1:37">
+      <c r="A49" t="s">
+        <v>768</v>
+      </c>
+      <c r="B49" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" t="s">
+        <v>297</v>
+      </c>
+      <c r="D49" t="s">
+        <v>303</v>
+      </c>
+      <c r="E49" t="s">
+        <v>231</v>
+      </c>
+      <c r="F49" t="s">
+        <v>298</v>
+      </c>
+      <c r="G49" t="s">
+        <v>300</v>
+      </c>
+      <c r="H49" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49" t="s">
+        <v>302</v>
+      </c>
+      <c r="J49" t="s">
+        <v>304</v>
+      </c>
+      <c r="K49" t="s">
+        <v>305</v>
+      </c>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+      <c r="T49"/>
+      <c r="U49"/>
+      <c r="V49"/>
+      <c r="W49"/>
+      <c r="X49"/>
+      <c r="Y49"/>
+      <c r="Z49"/>
+      <c r="AA49"/>
+      <c r="AB49"/>
+      <c r="AC49"/>
+      <c r="AD49"/>
+      <c r="AE49"/>
+      <c r="AF49"/>
+      <c r="AG49"/>
+      <c r="AH49"/>
+      <c r="AI49"/>
+      <c r="AJ49"/>
+      <c r="AK49"/>
+    </row>
+    <row r="50" spans="1:37">
+      <c r="A50" t="s">
+        <v>769</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" t="s">
+        <v>104</v>
+      </c>
+      <c r="E50" t="s">
+        <v>677</v>
+      </c>
+      <c r="F50" t="s">
+        <v>307</v>
+      </c>
+      <c r="G50" t="s">
+        <v>308</v>
+      </c>
+      <c r="H50" t="s">
+        <v>294</v>
+      </c>
+      <c r="I50" t="s">
+        <v>289</v>
+      </c>
+      <c r="J50" t="s">
+        <v>310</v>
+      </c>
+      <c r="K50" t="s">
+        <v>404</v>
+      </c>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+      <c r="T50"/>
+      <c r="U50"/>
+      <c r="V50"/>
+      <c r="W50"/>
+      <c r="X50"/>
+      <c r="Y50"/>
+      <c r="Z50"/>
+      <c r="AA50"/>
+      <c r="AB50"/>
+      <c r="AC50"/>
+      <c r="AD50"/>
+      <c r="AE50"/>
+      <c r="AF50"/>
+      <c r="AG50"/>
+      <c r="AH50"/>
+      <c r="AI50"/>
+      <c r="AJ50"/>
+      <c r="AK50"/>
+    </row>
+    <row r="51" spans="1:37">
+      <c r="A51" t="s">
+        <v>770</v>
+      </c>
+      <c r="B51" t="s">
+        <v>678</v>
+      </c>
+      <c r="C51" t="s">
+        <v>265</v>
+      </c>
+      <c r="D51" t="s">
+        <v>266</v>
+      </c>
+      <c r="E51" t="s">
+        <v>679</v>
+      </c>
+      <c r="F51" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" t="s">
+        <v>273</v>
+      </c>
+      <c r="H51" t="s">
+        <v>274</v>
+      </c>
+      <c r="I51" t="s">
+        <v>680</v>
+      </c>
+      <c r="J51" t="s">
+        <v>276</v>
+      </c>
+      <c r="K51" t="s">
+        <v>395</v>
+      </c>
+      <c r="L51" t="s">
+        <v>394</v>
+      </c>
+      <c r="M51" t="s">
+        <v>567</v>
+      </c>
+      <c r="N51"/>
+      <c r="O51"/>
+      <c r="P51"/>
+      <c r="Q51"/>
+      <c r="R51"/>
+      <c r="S51"/>
+      <c r="T51"/>
+      <c r="U51"/>
+      <c r="V51"/>
+      <c r="W51"/>
+      <c r="X51"/>
+      <c r="Y51"/>
+      <c r="Z51"/>
+      <c r="AA51"/>
+      <c r="AB51"/>
+      <c r="AC51"/>
+      <c r="AD51"/>
+      <c r="AE51"/>
+      <c r="AF51"/>
+      <c r="AG51"/>
+      <c r="AH51"/>
+      <c r="AI51"/>
+      <c r="AJ51"/>
+      <c r="AK51"/>
+    </row>
+    <row r="52" spans="1:37">
+      <c r="A52" t="s">
+        <v>771</v>
+      </c>
+      <c r="B52" t="s">
+        <v>681</v>
+      </c>
+      <c r="C52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" t="s">
+        <v>569</v>
+      </c>
+      <c r="E52" t="s">
+        <v>245</v>
+      </c>
+      <c r="F52" t="s">
+        <v>682</v>
+      </c>
+      <c r="G52" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" t="s">
+        <v>248</v>
+      </c>
+      <c r="I52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J52" t="s">
+        <v>685</v>
+      </c>
+      <c r="K52" t="s">
+        <v>257</v>
+      </c>
+      <c r="L52" t="s">
+        <v>231</v>
+      </c>
+      <c r="M52" t="s">
+        <v>258</v>
+      </c>
+      <c r="N52" t="s">
+        <v>260</v>
+      </c>
+      <c r="O52" t="s">
+        <v>684</v>
+      </c>
+      <c r="P52" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>683</v>
+      </c>
+      <c r="R52" t="s">
+        <v>684</v>
+      </c>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+      <c r="Y52"/>
+      <c r="Z52"/>
+      <c r="AA52"/>
+      <c r="AB52"/>
+      <c r="AC52"/>
+      <c r="AD52"/>
+      <c r="AE52"/>
+      <c r="AF52"/>
+      <c r="AG52"/>
+      <c r="AH52"/>
+      <c r="AI52"/>
+      <c r="AJ52"/>
+      <c r="AK52"/>
+    </row>
+    <row r="53" spans="1:37">
+      <c r="A53" t="s">
+        <v>772</v>
+      </c>
+      <c r="B53" t="s">
+        <v>407</v>
+      </c>
+      <c r="C53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D53" t="s">
+        <v>253</v>
+      </c>
+      <c r="E53" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" t="s">
+        <v>263</v>
+      </c>
+      <c r="G53" t="s">
+        <v>267</v>
+      </c>
+      <c r="H53" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" t="s">
+        <v>269</v>
+      </c>
+      <c r="J53" t="s">
+        <v>270</v>
+      </c>
+      <c r="K53" t="s">
+        <v>271</v>
+      </c>
+      <c r="L53" t="s">
+        <v>296</v>
+      </c>
+      <c r="M53" t="s">
+        <v>408</v>
+      </c>
+      <c r="N53" t="s">
+        <v>570</v>
+      </c>
+      <c r="O53" t="s">
+        <v>571</v>
+      </c>
+      <c r="P53" t="s">
+        <v>572</v>
+      </c>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+      <c r="AD53"/>
+      <c r="AE53"/>
+      <c r="AF53"/>
+      <c r="AG53"/>
+      <c r="AH53"/>
+      <c r="AI53"/>
+      <c r="AJ53"/>
+      <c r="AK53"/>
+    </row>
+    <row r="54" spans="1:37">
+      <c r="A54" t="s">
+        <v>773</v>
+      </c>
+      <c r="B54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" t="s">
+        <v>687</v>
+      </c>
+      <c r="F54" t="s">
+        <v>255</v>
+      </c>
+      <c r="G54" t="s">
+        <v>688</v>
+      </c>
+      <c r="H54" t="s">
+        <v>259</v>
+      </c>
+      <c r="I54" t="s">
+        <v>261</v>
+      </c>
+      <c r="J54" t="s">
+        <v>262</v>
+      </c>
+      <c r="K54" t="s">
+        <v>264</v>
+      </c>
+      <c r="L54" t="s">
+        <v>693</v>
+      </c>
+      <c r="M54" t="s">
+        <v>275</v>
+      </c>
+      <c r="N54" t="s">
+        <v>406</v>
+      </c>
+      <c r="O54" t="s">
+        <v>409</v>
+      </c>
+      <c r="P54" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>573</v>
+      </c>
+      <c r="R54" t="s">
+        <v>574</v>
+      </c>
+      <c r="S54" t="s">
+        <v>689</v>
+      </c>
+      <c r="T54" t="s">
+        <v>690</v>
+      </c>
+      <c r="U54" t="s">
+        <v>691</v>
+      </c>
+      <c r="V54" t="s">
+        <v>692</v>
+      </c>
+      <c r="W54" t="s">
+        <v>694</v>
+      </c>
+      <c r="X54"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+      <c r="AD54"/>
+      <c r="AE54"/>
+      <c r="AF54"/>
+      <c r="AG54"/>
+      <c r="AH54"/>
+      <c r="AI54"/>
+      <c r="AJ54"/>
+      <c r="AK54"/>
+    </row>
+    <row r="55" spans="1:37">
+      <c r="A55" t="s">
+        <v>774</v>
+      </c>
+      <c r="B55" t="s">
+        <v>320</v>
+      </c>
+      <c r="C55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+      <c r="AD55"/>
+      <c r="AE55"/>
+      <c r="AF55"/>
+      <c r="AG55"/>
+      <c r="AH55"/>
+      <c r="AI55"/>
+      <c r="AJ55"/>
+      <c r="AK55"/>
+    </row>
+    <row r="56" spans="1:37">
+      <c r="A56" t="s">
+        <v>775</v>
+      </c>
+      <c r="B56" t="s">
+        <v>319</v>
+      </c>
+      <c r="C56" t="s">
+        <v>312</v>
+      </c>
+      <c r="D56" t="s">
+        <v>332</v>
+      </c>
+      <c r="E56" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" t="s">
+        <v>322</v>
+      </c>
+      <c r="H56" t="s">
+        <v>323</v>
+      </c>
+      <c r="I56" t="s">
+        <v>324</v>
+      </c>
+      <c r="J56" t="s">
+        <v>328</v>
+      </c>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+      <c r="AD56"/>
+      <c r="AE56"/>
+      <c r="AF56"/>
+      <c r="AG56"/>
+      <c r="AH56"/>
+      <c r="AI56"/>
+      <c r="AJ56"/>
+      <c r="AK56"/>
+    </row>
+    <row r="57" spans="1:37">
+      <c r="A57" t="s">
+        <v>776</v>
+      </c>
+      <c r="B57" t="s">
+        <v>319</v>
+      </c>
+      <c r="C57" t="s">
+        <v>317</v>
+      </c>
+      <c r="D57" t="s">
+        <v>316</v>
+      </c>
+      <c r="E57" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" t="s">
+        <v>314</v>
+      </c>
+      <c r="G57" t="s">
+        <v>313</v>
+      </c>
+      <c r="H57" t="s">
+        <v>326</v>
+      </c>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+    </row>
+    <row r="58" spans="1:37">
+      <c r="A58" t="s">
+        <v>777</v>
+      </c>
+      <c r="B58" t="s">
+        <v>319</v>
+      </c>
+      <c r="C58" t="s">
+        <v>219</v>
+      </c>
+      <c r="D58" t="s">
+        <v>327</v>
+      </c>
+      <c r="E58" t="s">
+        <v>218</v>
+      </c>
+      <c r="F58" t="s">
+        <v>329</v>
+      </c>
+      <c r="G58" t="s">
+        <v>328</v>
+      </c>
+      <c r="H58" t="s">
+        <v>697</v>
+      </c>
+      <c r="I58" t="s">
+        <v>329</v>
+      </c>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+      <c r="AD58"/>
+      <c r="AE58"/>
+      <c r="AF58"/>
+      <c r="AG58"/>
+      <c r="AH58"/>
+      <c r="AI58"/>
+      <c r="AJ58"/>
+      <c r="AK58"/>
+    </row>
+    <row r="59" spans="1:37">
+      <c r="A59" t="s">
+        <v>778</v>
+      </c>
+      <c r="B59" t="s">
+        <v>319</v>
+      </c>
+      <c r="C59" t="s">
+        <v>312</v>
+      </c>
+      <c r="D59" t="s">
+        <v>330</v>
+      </c>
+      <c r="E59" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" t="s">
+        <v>323</v>
+      </c>
+      <c r="G59" t="s">
+        <v>322</v>
+      </c>
+      <c r="H59" t="s">
+        <v>696</v>
+      </c>
+      <c r="I59" t="s">
+        <v>331</v>
+      </c>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
+      <c r="M59"/>
+      <c r="N59"/>
+      <c r="O59"/>
+      <c r="P59"/>
+      <c r="Q59"/>
+      <c r="R59"/>
+      <c r="S59"/>
+      <c r="T59"/>
+      <c r="U59"/>
+      <c r="V59"/>
+      <c r="W59"/>
+      <c r="X59"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+      <c r="AD59"/>
+      <c r="AE59"/>
+      <c r="AF59"/>
+      <c r="AG59"/>
+      <c r="AH59"/>
+      <c r="AI59"/>
+      <c r="AJ59"/>
+      <c r="AK59"/>
+    </row>
+    <row r="60" spans="1:37">
+      <c r="A60" t="s">
+        <v>779</v>
+      </c>
+      <c r="B60" t="s">
+        <v>319</v>
+      </c>
+      <c r="C60" t="s">
+        <v>312</v>
+      </c>
+      <c r="D60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E60" t="s">
+        <v>311</v>
+      </c>
+      <c r="F60" t="s">
+        <v>325</v>
+      </c>
+      <c r="G60" t="s">
+        <v>322</v>
+      </c>
+      <c r="H60" t="s">
+        <v>323</v>
+      </c>
+      <c r="I60" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60" t="s">
+        <v>328</v>
+      </c>
+      <c r="K60"/>
+      <c r="L60"/>
+      <c r="M60"/>
+      <c r="N60"/>
+      <c r="O60"/>
+      <c r="P60"/>
+      <c r="Q60"/>
+      <c r="R60"/>
+      <c r="S60"/>
+      <c r="T60"/>
+      <c r="U60"/>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+      <c r="AD60"/>
+      <c r="AE60"/>
+      <c r="AF60"/>
+      <c r="AG60"/>
+      <c r="AH60"/>
+      <c r="AI60"/>
+      <c r="AJ60"/>
+      <c r="AK60"/>
+    </row>
+    <row r="61" spans="1:37">
+      <c r="A61" t="s">
+        <v>780</v>
+      </c>
+      <c r="B61" t="s">
+        <v>319</v>
+      </c>
+      <c r="C61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
+      <c r="M61"/>
+      <c r="N61"/>
+      <c r="O61"/>
+      <c r="P61"/>
+      <c r="Q61"/>
+      <c r="R61"/>
+      <c r="S61"/>
+      <c r="T61"/>
+      <c r="U61"/>
+      <c r="V61"/>
+      <c r="W61"/>
+      <c r="X61"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+      <c r="AD61"/>
+      <c r="AE61"/>
+      <c r="AF61"/>
+      <c r="AG61"/>
+      <c r="AH61"/>
+      <c r="AI61"/>
+      <c r="AJ61"/>
+      <c r="AK61"/>
+    </row>
+    <row r="62" spans="1:37">
+      <c r="A62" t="s">
+        <v>774</v>
+      </c>
+      <c r="B62" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>113</v>
+      </c>
+      <c r="E62" t="s">
+        <v>114</v>
+      </c>
+      <c r="F62" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" t="s">
+        <v>271</v>
+      </c>
+      <c r="H62" t="s">
+        <v>333</v>
+      </c>
+      <c r="I62" t="s">
+        <v>334</v>
+      </c>
+      <c r="J62" t="s">
+        <v>700</v>
+      </c>
+      <c r="K62" t="s">
+        <v>122</v>
+      </c>
+      <c r="L62" t="s">
+        <v>702</v>
+      </c>
+      <c r="M62" t="s">
+        <v>701</v>
+      </c>
+      <c r="N62"/>
+      <c r="O62"/>
+      <c r="P62"/>
+      <c r="Q62"/>
+      <c r="R62"/>
+      <c r="S62"/>
+      <c r="T62"/>
+      <c r="U62"/>
+      <c r="V62"/>
+      <c r="W62"/>
+      <c r="X62"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+      <c r="AD62"/>
+      <c r="AE62"/>
+      <c r="AF62"/>
+      <c r="AG62"/>
+      <c r="AH62"/>
+      <c r="AI62"/>
+      <c r="AJ62"/>
+      <c r="AK62"/>
+    </row>
+    <row r="63" spans="1:37">
+      <c r="A63" t="s">
+        <v>781</v>
+      </c>
+      <c r="B63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" t="s">
+        <v>336</v>
+      </c>
+      <c r="F63" t="s">
+        <v>337</v>
+      </c>
+      <c r="G63"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+      <c r="L63"/>
+      <c r="M63"/>
+      <c r="N63"/>
+      <c r="O63"/>
+      <c r="P63"/>
+      <c r="Q63"/>
+      <c r="R63"/>
+      <c r="S63"/>
+      <c r="T63"/>
+      <c r="U63"/>
+      <c r="V63"/>
+      <c r="W63"/>
+      <c r="X63"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+      <c r="AD63"/>
+      <c r="AE63"/>
+      <c r="AF63"/>
+      <c r="AG63"/>
+      <c r="AH63"/>
+      <c r="AI63"/>
+      <c r="AJ63"/>
+      <c r="AK63"/>
+    </row>
+    <row r="64" spans="1:37">
+      <c r="A64" t="s">
+        <v>780</v>
+      </c>
+      <c r="B64" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" t="s">
+        <v>339</v>
+      </c>
+      <c r="D64" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" t="s">
+        <v>120</v>
+      </c>
+      <c r="F64" t="s">
+        <v>338</v>
+      </c>
+      <c r="G64" t="s">
+        <v>340</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+      <c r="L64"/>
+      <c r="M64"/>
+      <c r="N64"/>
+      <c r="O64"/>
+      <c r="P64"/>
+      <c r="Q64"/>
+      <c r="R64"/>
+      <c r="S64"/>
+      <c r="T64"/>
+      <c r="U64"/>
+      <c r="V64"/>
+      <c r="W64"/>
+      <c r="X64"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+      <c r="AD64"/>
+      <c r="AE64"/>
+      <c r="AF64"/>
+      <c r="AG64"/>
+      <c r="AH64"/>
+      <c r="AI64"/>
+      <c r="AJ64"/>
+      <c r="AK64"/>
+    </row>
+    <row r="65" spans="1:37">
+      <c r="A65" t="s">
+        <v>782</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>341</v>
+      </c>
+      <c r="D65" t="s">
+        <v>342</v>
+      </c>
+      <c r="E65" t="s">
+        <v>343</v>
+      </c>
+      <c r="F65" t="s">
+        <v>344</v>
+      </c>
+      <c r="G65" t="s">
+        <v>254</v>
+      </c>
+      <c r="H65" t="s">
+        <v>345</v>
+      </c>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+      <c r="L65"/>
+      <c r="M65"/>
+      <c r="N65"/>
+      <c r="O65"/>
+      <c r="P65"/>
+      <c r="Q65"/>
+      <c r="R65"/>
+      <c r="S65"/>
+      <c r="T65"/>
+      <c r="U65"/>
+      <c r="V65"/>
+      <c r="W65"/>
+      <c r="X65"/>
+      <c r="Y65"/>
+      <c r="Z65"/>
+      <c r="AA65"/>
+      <c r="AB65"/>
+      <c r="AC65"/>
+      <c r="AD65"/>
+      <c r="AE65"/>
+      <c r="AF65"/>
+      <c r="AG65"/>
+      <c r="AH65"/>
+      <c r="AI65"/>
+      <c r="AJ65"/>
+      <c r="AK65"/>
+    </row>
+    <row r="66" spans="1:37">
+      <c r="A66" t="s">
+        <v>783</v>
+      </c>
+      <c r="B66" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" t="s">
+        <v>700</v>
+      </c>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+      <c r="E66" t="s">
+        <v>37</v>
+      </c>
+      <c r="F66" t="s">
+        <v>704</v>
+      </c>
+      <c r="G66" t="s">
+        <v>701</v>
+      </c>
+      <c r="H66" t="s">
+        <v>702</v>
+      </c>
+      <c r="I66" t="s">
+        <v>701</v>
+      </c>
+      <c r="J66"/>
+      <c r="K66"/>
+      <c r="L66"/>
+      <c r="M66"/>
+      <c r="N66"/>
+      <c r="O66"/>
+      <c r="P66"/>
+      <c r="Q66"/>
+      <c r="R66"/>
+      <c r="S66"/>
+      <c r="T66"/>
+      <c r="U66"/>
+      <c r="V66"/>
+      <c r="W66"/>
+      <c r="X66"/>
+      <c r="Y66"/>
+      <c r="Z66"/>
+      <c r="AA66"/>
+      <c r="AB66"/>
+      <c r="AC66"/>
+      <c r="AD66"/>
+      <c r="AE66"/>
+      <c r="AF66"/>
+      <c r="AG66"/>
+      <c r="AH66"/>
+      <c r="AI66"/>
+      <c r="AJ66"/>
+      <c r="AK66"/>
+    </row>
+    <row r="67" spans="1:37">
+      <c r="A67" t="s">
+        <v>784</v>
+      </c>
+      <c r="B67" t="s">
+        <v>784</v>
+      </c>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67"/>
+      <c r="F67"/>
+      <c r="G67"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+      <c r="L67"/>
+      <c r="M67"/>
+      <c r="N67"/>
+      <c r="O67"/>
+      <c r="P67"/>
+      <c r="Q67"/>
+      <c r="R67"/>
+      <c r="S67"/>
+      <c r="T67"/>
+      <c r="U67"/>
+      <c r="V67"/>
+      <c r="W67"/>
+      <c r="X67"/>
+      <c r="Y67"/>
+      <c r="Z67"/>
+      <c r="AA67"/>
+      <c r="AB67"/>
+      <c r="AC67"/>
+      <c r="AD67"/>
+      <c r="AE67"/>
+      <c r="AF67"/>
+      <c r="AG67"/>
+      <c r="AH67"/>
+      <c r="AI67"/>
+      <c r="AJ67"/>
+      <c r="AK67"/>
+    </row>
+    <row r="68" spans="1:37">
+      <c r="A68" t="s">
+        <v>785</v>
+      </c>
+      <c r="B68" t="s">
+        <v>785</v>
+      </c>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68"/>
+      <c r="F68"/>
+      <c r="G68"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+      <c r="L68"/>
+      <c r="M68"/>
+      <c r="N68"/>
+      <c r="O68"/>
+      <c r="P68"/>
+      <c r="Q68"/>
+      <c r="R68"/>
+      <c r="S68"/>
+      <c r="T68"/>
+      <c r="U68"/>
+      <c r="V68"/>
+      <c r="W68"/>
+      <c r="X68"/>
+      <c r="Y68"/>
+      <c r="Z68"/>
+      <c r="AA68"/>
+      <c r="AB68"/>
+      <c r="AC68"/>
+      <c r="AD68"/>
+      <c r="AE68"/>
+      <c r="AF68"/>
+      <c r="AG68"/>
+      <c r="AH68"/>
+      <c r="AI68"/>
+      <c r="AJ68"/>
+      <c r="AK68"/>
+    </row>
+    <row r="69" spans="1:37">
+      <c r="A69" t="s">
+        <v>786</v>
+      </c>
+      <c r="B69" t="s">
+        <v>786</v>
+      </c>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69"/>
+      <c r="F69"/>
+      <c r="G69"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+      <c r="L69"/>
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="O69"/>
+      <c r="P69"/>
+      <c r="Q69"/>
+      <c r="R69"/>
+      <c r="S69"/>
+      <c r="T69"/>
+      <c r="U69"/>
+      <c r="V69"/>
+      <c r="W69"/>
+      <c r="X69"/>
+      <c r="Y69"/>
+      <c r="Z69"/>
+      <c r="AA69"/>
+      <c r="AB69"/>
+      <c r="AC69"/>
+      <c r="AD69"/>
+      <c r="AE69"/>
+      <c r="AF69"/>
+      <c r="AG69"/>
+      <c r="AH69"/>
+      <c r="AI69"/>
+      <c r="AJ69"/>
+      <c r="AK69"/>
+    </row>
+    <row r="70" spans="1:37">
+      <c r="A70" t="s">
+        <v>787</v>
+      </c>
+      <c r="B70" t="s">
+        <v>787</v>
+      </c>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+      <c r="L70"/>
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="O70"/>
+      <c r="P70"/>
+      <c r="Q70"/>
+      <c r="R70"/>
+      <c r="S70"/>
+      <c r="T70"/>
+      <c r="U70"/>
+      <c r="V70"/>
+      <c r="W70"/>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
+      <c r="AB70"/>
+      <c r="AC70"/>
+      <c r="AD70"/>
+      <c r="AE70"/>
+      <c r="AF70"/>
+      <c r="AG70"/>
+      <c r="AH70"/>
+      <c r="AI70"/>
+      <c r="AJ70"/>
+      <c r="AK70"/>
+    </row>
+    <row r="71" spans="1:37">
+      <c r="A71" t="s">
+        <v>788</v>
+      </c>
+      <c r="B71" t="s">
+        <v>788</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+      <c r="L71"/>
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="O71"/>
+      <c r="P71"/>
+      <c r="Q71"/>
+      <c r="R71"/>
+      <c r="S71"/>
+      <c r="T71"/>
+      <c r="U71"/>
+      <c r="V71"/>
+      <c r="W71"/>
+      <c r="X71"/>
+      <c r="Y71"/>
+      <c r="Z71"/>
+      <c r="AA71"/>
+      <c r="AB71"/>
+      <c r="AC71"/>
+      <c r="AD71"/>
+      <c r="AE71"/>
+      <c r="AF71"/>
+      <c r="AG71"/>
+      <c r="AH71"/>
+      <c r="AI71"/>
+      <c r="AJ71"/>
+      <c r="AK71"/>
+    </row>
+    <row r="72" spans="1:37">
+      <c r="A72" t="s">
+        <v>789</v>
+      </c>
+      <c r="B72" t="s">
+        <v>789</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
+      <c r="N72"/>
+      <c r="O72"/>
+      <c r="P72"/>
+      <c r="Q72"/>
+      <c r="R72"/>
+      <c r="S72"/>
+      <c r="T72"/>
+      <c r="U72"/>
+      <c r="V72"/>
+      <c r="W72"/>
+      <c r="X72"/>
+      <c r="Y72"/>
+      <c r="Z72"/>
+      <c r="AA72"/>
+      <c r="AB72"/>
+      <c r="AC72"/>
+      <c r="AD72"/>
+      <c r="AE72"/>
+      <c r="AF72"/>
+      <c r="AG72"/>
+      <c r="AH72"/>
+      <c r="AI72"/>
+      <c r="AJ72"/>
+      <c r="AK72"/>
+    </row>
+    <row r="73" spans="1:37">
+      <c r="A73" t="s">
+        <v>790</v>
+      </c>
+      <c r="B73" t="s">
+        <v>792</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+      <c r="L73"/>
+      <c r="M73"/>
+      <c r="N73"/>
+      <c r="O73"/>
+      <c r="P73"/>
+      <c r="Q73"/>
+      <c r="R73"/>
+      <c r="S73"/>
+      <c r="T73"/>
+      <c r="U73"/>
+      <c r="V73"/>
+      <c r="W73"/>
+      <c r="X73"/>
+      <c r="Y73"/>
+      <c r="Z73"/>
+      <c r="AA73"/>
+      <c r="AB73"/>
+      <c r="AC73"/>
+      <c r="AD73"/>
+      <c r="AE73"/>
+      <c r="AF73"/>
+      <c r="AG73"/>
+      <c r="AH73"/>
+      <c r="AI73"/>
+      <c r="AJ73"/>
+      <c r="AK73"/>
+    </row>
+    <row r="74" spans="1:37">
+      <c r="A74" t="s">
+        <v>791</v>
+      </c>
+      <c r="B74" t="s">
+        <v>794</v>
+      </c>
+      <c r="C74" t="s">
+        <v>795</v>
+      </c>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+      <c r="L74"/>
+      <c r="M74"/>
+      <c r="N74"/>
+      <c r="O74"/>
+      <c r="P74"/>
+      <c r="Q74"/>
+      <c r="R74"/>
+      <c r="S74"/>
+      <c r="T74"/>
+      <c r="U74"/>
+      <c r="V74"/>
+      <c r="W74"/>
+      <c r="X74"/>
+      <c r="Y74"/>
+      <c r="Z74"/>
+      <c r="AA74"/>
+      <c r="AB74"/>
+      <c r="AC74"/>
+      <c r="AD74"/>
+      <c r="AE74"/>
+      <c r="AF74"/>
+      <c r="AG74"/>
+      <c r="AH74"/>
+      <c r="AI74"/>
+      <c r="AJ74"/>
+      <c r="AK74"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>